--- a/outputs-r202/c__Bacteroidia.xlsx
+++ b/outputs-r202/c__Bacteroidia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q339"/>
+  <dimension ref="A1:Q329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16631,50 +16631,50 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>RUG722.fasta</t>
+          <t>RUG720.fasta</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>2.220267202277314e-14</v>
+        <v>9.01641216143581e-14</v>
       </c>
       <c r="C275" t="n">
-        <v>2.220267202277314e-14</v>
+        <v>9.01641216143581e-14</v>
       </c>
       <c r="D275" t="n">
-        <v>2.220267202277314e-14</v>
+        <v>9.016412161435808e-14</v>
       </c>
       <c r="E275" t="n">
-        <v>0.9989496349861194</v>
+        <v>0.9917204520777168</v>
       </c>
       <c r="F275" t="n">
-        <v>2.220267202277314e-14</v>
+        <v>2.243200069685921e-13</v>
       </c>
       <c r="G275" t="n">
-        <v>0.0009824233432261529</v>
+        <v>0.001252739240834647</v>
       </c>
       <c r="H275" t="n">
-        <v>1.872035371250419e-11</v>
+        <v>0.001775319131624151</v>
       </c>
       <c r="I275" t="n">
-        <v>6.794164036593181e-05</v>
+        <v>0.005251489548878985</v>
       </c>
       <c r="J275" t="n">
-        <v>2.220267202277314e-14</v>
+        <v>9.016412161435834e-14</v>
       </c>
       <c r="K275" t="n">
-        <v>1.13904642720526e-11</v>
+        <v>9.016412161441754e-14</v>
       </c>
       <c r="L275" t="n">
-        <v>2.220267202277314e-14</v>
+        <v>9.016412161435784e-14</v>
       </c>
       <c r="M275" t="n">
-        <v>2.220267202277314e-14</v>
+        <v>9.016412161446336e-14</v>
       </c>
       <c r="N275" t="n">
-        <v>2.220267202277314e-14</v>
+        <v>9.016412161435805e-14</v>
       </c>
       <c r="O275" t="n">
-        <v>0.9989496349861194</v>
+        <v>0.9917204520777168</v>
       </c>
       <c r="P275" t="inlineStr">
         <is>
@@ -16690,50 +16690,50 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>RUG733.fasta</t>
+          <t>RUG722.fasta</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>2.220347589051797e-14</v>
+        <v>2.220267202277314e-14</v>
       </c>
       <c r="C276" t="n">
-        <v>2.220347589051797e-14</v>
+        <v>2.220267202277314e-14</v>
       </c>
       <c r="D276" t="n">
-        <v>2.220347589051797e-14</v>
+        <v>2.220267202277314e-14</v>
       </c>
       <c r="E276" t="n">
-        <v>0.9994225663185652</v>
+        <v>0.9989496349861194</v>
       </c>
       <c r="F276" t="n">
-        <v>2.220347589051797e-14</v>
+        <v>2.220267202277314e-14</v>
       </c>
       <c r="G276" t="n">
-        <v>0.0005566733801362306</v>
+        <v>0.0009824233432261529</v>
       </c>
       <c r="H276" t="n">
-        <v>8.139160879949098e-10</v>
+        <v>1.872035371250419e-11</v>
       </c>
       <c r="I276" t="n">
-        <v>4.201516649140923e-13</v>
+        <v>6.794164036593181e-05</v>
       </c>
       <c r="J276" t="n">
-        <v>2.220347589051797e-14</v>
+        <v>2.220267202277314e-14</v>
       </c>
       <c r="K276" t="n">
-        <v>2.075948678465015e-05</v>
+        <v>1.13904642720526e-11</v>
       </c>
       <c r="L276" t="n">
-        <v>2.220347589051797e-14</v>
+        <v>2.220267202277314e-14</v>
       </c>
       <c r="M276" t="n">
-        <v>2.220347589051797e-14</v>
+        <v>2.220267202277314e-14</v>
       </c>
       <c r="N276" t="n">
-        <v>2.220347589051797e-14</v>
+        <v>2.220267202277314e-14</v>
       </c>
       <c r="O276" t="n">
-        <v>0.9994225663185652</v>
+        <v>0.9989496349861194</v>
       </c>
       <c r="P276" t="inlineStr">
         <is>
@@ -16749,50 +16749,50 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>RUG734.fasta</t>
+          <t>RUG733.fasta</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>2.220089546304142e-14</v>
+        <v>2.220347589051797e-14</v>
       </c>
       <c r="C277" t="n">
-        <v>3.283444441942703e-05</v>
+        <v>2.220347589051797e-14</v>
       </c>
       <c r="D277" t="n">
-        <v>7.957951963246072e-07</v>
+        <v>2.220347589051797e-14</v>
       </c>
       <c r="E277" t="n">
-        <v>0.9950046126681245</v>
+        <v>0.9994225663185652</v>
       </c>
       <c r="F277" t="n">
-        <v>1.542791507173305e-09</v>
+        <v>2.220347589051797e-14</v>
       </c>
       <c r="G277" t="n">
-        <v>0.0005688461662556987</v>
+        <v>0.0005566733801362306</v>
       </c>
       <c r="H277" t="n">
-        <v>0.004277624511010133</v>
+        <v>8.139160879949098e-10</v>
       </c>
       <c r="I277" t="n">
-        <v>4.295018291387023e-05</v>
+        <v>4.201516649140923e-13</v>
       </c>
       <c r="J277" t="n">
-        <v>2.220089546304142e-14</v>
+        <v>2.220347589051797e-14</v>
       </c>
       <c r="K277" t="n">
-        <v>6.894339012747412e-05</v>
+        <v>2.075948678465015e-05</v>
       </c>
       <c r="L277" t="n">
-        <v>2.220089546304142e-14</v>
+        <v>2.220347589051797e-14</v>
       </c>
       <c r="M277" t="n">
-        <v>2.389380410959877e-08</v>
+        <v>2.220347589051797e-14</v>
       </c>
       <c r="N277" t="n">
-        <v>3.367405290519415e-06</v>
+        <v>2.220347589051797e-14</v>
       </c>
       <c r="O277" t="n">
-        <v>0.9950046126681245</v>
+        <v>0.9994225663185652</v>
       </c>
       <c r="P277" t="inlineStr">
         <is>
@@ -16808,50 +16808,50 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>RUG736.fasta</t>
+          <t>RUG734.fasta</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>2.220150204366794e-14</v>
+        <v>2.220089546304142e-14</v>
       </c>
       <c r="C278" t="n">
-        <v>3.124455108924189e-10</v>
+        <v>3.283444441942703e-05</v>
       </c>
       <c r="D278" t="n">
-        <v>0.0001080310693697836</v>
+        <v>7.957951963246072e-07</v>
       </c>
       <c r="E278" t="n">
-        <v>0.990474754476367</v>
+        <v>0.9950046126681245</v>
       </c>
       <c r="F278" t="n">
-        <v>2.219323460301723e-07</v>
+        <v>1.542791507173305e-09</v>
       </c>
       <c r="G278" t="n">
-        <v>0.007851275487658946</v>
+        <v>0.0005688461662556987</v>
       </c>
       <c r="H278" t="n">
-        <v>0.000863235619971003</v>
+        <v>0.004277624511010133</v>
       </c>
       <c r="I278" t="n">
-        <v>0.0006550179308239902</v>
+        <v>4.295018291387023e-05</v>
       </c>
       <c r="J278" t="n">
-        <v>2.220150204366794e-14</v>
+        <v>2.220089546304142e-14</v>
       </c>
       <c r="K278" t="n">
-        <v>1.033500200201132e-05</v>
+        <v>6.894339012747412e-05</v>
       </c>
       <c r="L278" t="n">
-        <v>2.220150204366794e-14</v>
+        <v>2.220089546304142e-14</v>
       </c>
       <c r="M278" t="n">
-        <v>3.712347345053652e-05</v>
+        <v>2.389380410959877e-08</v>
       </c>
       <c r="N278" t="n">
-        <v>4.695498538510491e-09</v>
+        <v>3.367405290519415e-06</v>
       </c>
       <c r="O278" t="n">
-        <v>0.990474754476367</v>
+        <v>0.9950046126681245</v>
       </c>
       <c r="P278" t="inlineStr">
         <is>
@@ -16867,50 +16867,50 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>RUG737.fasta</t>
+          <t>RUG736.fasta</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>2.220038220402404e-14</v>
+        <v>2.220150204366794e-14</v>
       </c>
       <c r="C279" t="n">
-        <v>2.220038220402404e-14</v>
+        <v>3.124455108924189e-10</v>
       </c>
       <c r="D279" t="n">
-        <v>2.220038220402404e-14</v>
+        <v>0.0001080310693697836</v>
       </c>
       <c r="E279" t="n">
-        <v>0.996261604216062</v>
+        <v>0.990474754476367</v>
       </c>
       <c r="F279" t="n">
-        <v>2.220038220402404e-14</v>
+        <v>2.219323460301723e-07</v>
       </c>
       <c r="G279" t="n">
-        <v>7.787011824687613e-05</v>
+        <v>0.007851275487658946</v>
       </c>
       <c r="H279" t="n">
-        <v>5.352775201478631e-06</v>
+        <v>0.000863235619971003</v>
       </c>
       <c r="I279" t="n">
-        <v>2.93592003634885e-09</v>
+        <v>0.0006550179308239902</v>
       </c>
       <c r="J279" t="n">
-        <v>2.220038220402404e-14</v>
+        <v>2.220150204366794e-14</v>
       </c>
       <c r="K279" t="n">
-        <v>0.003655169953924251</v>
+        <v>1.033500200201132e-05</v>
       </c>
       <c r="L279" t="n">
-        <v>2.220038220402404e-14</v>
+        <v>2.220150204366794e-14</v>
       </c>
       <c r="M279" t="n">
-        <v>4.89702017407187e-13</v>
+        <v>3.712347345053652e-05</v>
       </c>
       <c r="N279" t="n">
-        <v>2.220038220402404e-14</v>
+        <v>4.695498538510491e-09</v>
       </c>
       <c r="O279" t="n">
-        <v>0.996261604216062</v>
+        <v>0.990474754476367</v>
       </c>
       <c r="P279" t="inlineStr">
         <is>
@@ -16926,50 +16926,50 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>RUG738.fasta</t>
+          <t>RUG737.fasta</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>2.220342023421709e-14</v>
+        <v>2.220038220402404e-14</v>
       </c>
       <c r="C280" t="n">
-        <v>2.220342023421709e-14</v>
+        <v>2.220038220402404e-14</v>
       </c>
       <c r="D280" t="n">
-        <v>2.220342023421709e-14</v>
+        <v>2.220038220402404e-14</v>
       </c>
       <c r="E280" t="n">
-        <v>0.9993898688171721</v>
+        <v>0.996261604216062</v>
       </c>
       <c r="F280" t="n">
-        <v>2.220342023421709e-14</v>
+        <v>2.220038220402404e-14</v>
       </c>
       <c r="G280" t="n">
-        <v>0.0006101310596355998</v>
+        <v>7.787011824687613e-05</v>
       </c>
       <c r="H280" t="n">
-        <v>1.229618426598355e-10</v>
+        <v>5.352775201478631e-06</v>
       </c>
       <c r="I280" t="n">
-        <v>2.220342023421709e-14</v>
+        <v>2.93592003634885e-09</v>
       </c>
       <c r="J280" t="n">
-        <v>2.220342023421709e-14</v>
+        <v>2.220038220402404e-14</v>
       </c>
       <c r="K280" t="n">
-        <v>3.068028001636402e-14</v>
+        <v>0.003655169953924251</v>
       </c>
       <c r="L280" t="n">
-        <v>2.220342023421709e-14</v>
+        <v>2.220038220402404e-14</v>
       </c>
       <c r="M280" t="n">
-        <v>2.220342023421709e-14</v>
+        <v>4.89702017407187e-13</v>
       </c>
       <c r="N280" t="n">
-        <v>2.220342023421709e-14</v>
+        <v>2.220038220402404e-14</v>
       </c>
       <c r="O280" t="n">
-        <v>0.9993898688171721</v>
+        <v>0.996261604216062</v>
       </c>
       <c r="P280" t="inlineStr">
         <is>
@@ -16985,50 +16985,50 @@
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>RUG739.fasta</t>
+          <t>RUG738.fasta</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>2.220035599757602e-14</v>
+        <v>2.220342023421709e-14</v>
       </c>
       <c r="C281" t="n">
-        <v>1.297699912164585e-12</v>
+        <v>2.220342023421709e-14</v>
       </c>
       <c r="D281" t="n">
-        <v>8.790849771012495e-12</v>
+        <v>2.220342023421709e-14</v>
       </c>
       <c r="E281" t="n">
-        <v>0.9970718141822097</v>
+        <v>0.9993898688171721</v>
       </c>
       <c r="F281" t="n">
-        <v>1.142552892530254e-09</v>
+        <v>2.220342023421709e-14</v>
       </c>
       <c r="G281" t="n">
-        <v>0.0001203965025346281</v>
+        <v>0.0006101310596355998</v>
       </c>
       <c r="H281" t="n">
-        <v>2.569402295633385e-06</v>
+        <v>1.229618426598355e-10</v>
       </c>
       <c r="I281" t="n">
-        <v>5.244744941595399e-09</v>
+        <v>2.220342023421709e-14</v>
       </c>
       <c r="J281" t="n">
-        <v>2.220035599757602e-14</v>
+        <v>2.220342023421709e-14</v>
       </c>
       <c r="K281" t="n">
-        <v>0.002805213233013039</v>
+        <v>3.068028001636402e-14</v>
       </c>
       <c r="L281" t="n">
-        <v>2.220035599757602e-14</v>
+        <v>2.220342023421709e-14</v>
       </c>
       <c r="M281" t="n">
-        <v>2.821163855428003e-10</v>
+        <v>2.220342023421709e-14</v>
       </c>
       <c r="N281" t="n">
-        <v>3.775628267164848e-13</v>
+        <v>2.220342023421709e-14</v>
       </c>
       <c r="O281" t="n">
-        <v>0.9970718141822097</v>
+        <v>0.9993898688171721</v>
       </c>
       <c r="P281" t="inlineStr">
         <is>
@@ -17044,50 +17044,50 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>RUG742.fasta</t>
+          <t>RUG739.fasta</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>2.220055562688957e-14</v>
+        <v>2.220035599757602e-14</v>
       </c>
       <c r="C282" t="n">
-        <v>2.220055562688957e-14</v>
+        <v>1.297699912164585e-12</v>
       </c>
       <c r="D282" t="n">
-        <v>2.220055562688957e-14</v>
+        <v>8.790849771012495e-12</v>
       </c>
       <c r="E282" t="n">
-        <v>0.9611125760954587</v>
+        <v>0.9970718141822097</v>
       </c>
       <c r="F282" t="n">
-        <v>2.220055562688957e-14</v>
+        <v>1.142552892530254e-09</v>
       </c>
       <c r="G282" t="n">
-        <v>1.511270976239088e-06</v>
+        <v>0.0001203965025346281</v>
       </c>
       <c r="H282" t="n">
-        <v>9.084348672190686e-11</v>
+        <v>2.569402295633385e-06</v>
       </c>
       <c r="I282" t="n">
-        <v>2.220055562688957e-14</v>
+        <v>5.244744941595399e-09</v>
       </c>
       <c r="J282" t="n">
-        <v>2.220055562688957e-14</v>
+        <v>2.220035599757602e-14</v>
       </c>
       <c r="K282" t="n">
-        <v>0.03888591254252167</v>
+        <v>0.002805213233013039</v>
       </c>
       <c r="L282" t="n">
-        <v>2.220055562688957e-14</v>
+        <v>2.220035599757602e-14</v>
       </c>
       <c r="M282" t="n">
-        <v>2.220055562688957e-14</v>
+        <v>2.821163855428003e-10</v>
       </c>
       <c r="N282" t="n">
-        <v>2.220055562688957e-14</v>
+        <v>3.775628267164848e-13</v>
       </c>
       <c r="O282" t="n">
-        <v>0.9611125760954587</v>
+        <v>0.9970718141822097</v>
       </c>
       <c r="P282" t="inlineStr">
         <is>
@@ -17103,50 +17103,50 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>RUG744.fasta</t>
+          <t>RUG742.fasta</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>2.220213404826847e-14</v>
+        <v>2.220055562688957e-14</v>
       </c>
       <c r="C283" t="n">
-        <v>5.003805924654308e-11</v>
+        <v>2.220055562688957e-14</v>
       </c>
       <c r="D283" t="n">
-        <v>1.633091199666056e-12</v>
+        <v>2.220055562688957e-14</v>
       </c>
       <c r="E283" t="n">
-        <v>0.9986323902614972</v>
+        <v>0.9611125760954587</v>
       </c>
       <c r="F283" t="n">
-        <v>2.220213404826847e-14</v>
+        <v>2.220055562688957e-14</v>
       </c>
       <c r="G283" t="n">
-        <v>0.0001251948263078809</v>
+        <v>1.511270976239088e-06</v>
       </c>
       <c r="H283" t="n">
-        <v>1.840228854705595e-08</v>
+        <v>9.084348672190686e-11</v>
       </c>
       <c r="I283" t="n">
-        <v>1.57774036474028e-09</v>
+        <v>2.220055562688957e-14</v>
       </c>
       <c r="J283" t="n">
-        <v>2.220213404826847e-14</v>
+        <v>2.220055562688957e-14</v>
       </c>
       <c r="K283" t="n">
-        <v>0.001242380265213984</v>
+        <v>0.03888591254252167</v>
       </c>
       <c r="L283" t="n">
-        <v>2.220213404826847e-14</v>
+        <v>2.220055562688957e-14</v>
       </c>
       <c r="M283" t="n">
-        <v>1.461516986976638e-08</v>
+        <v>2.220055562688957e-14</v>
       </c>
       <c r="N283" t="n">
-        <v>2.220213404826847e-14</v>
+        <v>2.220055562688957e-14</v>
       </c>
       <c r="O283" t="n">
-        <v>0.9986323902614972</v>
+        <v>0.9611125760954587</v>
       </c>
       <c r="P283" t="inlineStr">
         <is>
@@ -17162,50 +17162,50 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>RUG749.fasta</t>
+          <t>RUG744.fasta</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>2.22042102697249e-14</v>
+        <v>2.220213404826847e-14</v>
       </c>
       <c r="C284" t="n">
-        <v>2.356739841841836e-07</v>
+        <v>5.003805924654308e-11</v>
       </c>
       <c r="D284" t="n">
-        <v>2.559837632020128e-09</v>
+        <v>1.633091199666056e-12</v>
       </c>
       <c r="E284" t="n">
-        <v>0.9998532924043954</v>
+        <v>0.9986323902614972</v>
       </c>
       <c r="F284" t="n">
-        <v>3.182582060706991e-13</v>
+        <v>2.220213404826847e-14</v>
       </c>
       <c r="G284" t="n">
-        <v>1.665033615056776e-05</v>
+        <v>0.0001251948263078809</v>
       </c>
       <c r="H284" t="n">
-        <v>1.417337990134508e-06</v>
+        <v>1.840228854705595e-08</v>
       </c>
       <c r="I284" t="n">
-        <v>0.0001092932713079889</v>
+        <v>1.57774036474028e-09</v>
       </c>
       <c r="J284" t="n">
-        <v>2.22042102697249e-14</v>
+        <v>2.220213404826847e-14</v>
       </c>
       <c r="K284" t="n">
-        <v>1.910232748829919e-05</v>
+        <v>0.001242380265213984</v>
       </c>
       <c r="L284" t="n">
-        <v>2.22042102697249e-14</v>
+        <v>2.220213404826847e-14</v>
       </c>
       <c r="M284" t="n">
-        <v>6.104670682714566e-11</v>
+        <v>1.461516986976638e-08</v>
       </c>
       <c r="N284" t="n">
-        <v>6.027414171630165e-09</v>
+        <v>2.220213404826847e-14</v>
       </c>
       <c r="O284" t="n">
-        <v>0.9998532924043954</v>
+        <v>0.9986323902614972</v>
       </c>
       <c r="P284" t="inlineStr">
         <is>
@@ -17221,50 +17221,50 @@
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>RUG751.fasta</t>
+          <t>RUG749.fasta</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>3.52491118983129e-14</v>
+        <v>2.22042102697249e-14</v>
       </c>
       <c r="C285" t="n">
-        <v>9.433710596943626e-07</v>
+        <v>2.356739841841836e-07</v>
       </c>
       <c r="D285" t="n">
-        <v>8.099509591390516e-05</v>
+        <v>2.559837632020128e-09</v>
       </c>
       <c r="E285" t="n">
-        <v>0.7064474730738666</v>
+        <v>0.9998532924043954</v>
       </c>
       <c r="F285" t="n">
-        <v>2.914750960057217e-07</v>
+        <v>3.182582060706991e-13</v>
       </c>
       <c r="G285" t="n">
-        <v>0.01758272895352459</v>
+        <v>1.665033615056776e-05</v>
       </c>
       <c r="H285" t="n">
-        <v>6.668397603705251e-06</v>
+        <v>1.417337990134508e-06</v>
       </c>
       <c r="I285" t="n">
-        <v>0.2741925723913428</v>
+        <v>0.0001092932713079889</v>
       </c>
       <c r="J285" t="n">
-        <v>3.524911189831286e-14</v>
+        <v>2.22042102697249e-14</v>
       </c>
       <c r="K285" t="n">
-        <v>0.001677034925785862</v>
+        <v>1.910232748829919e-05</v>
       </c>
       <c r="L285" t="n">
-        <v>3.524911189831286e-14</v>
+        <v>2.22042102697249e-14</v>
       </c>
       <c r="M285" t="n">
-        <v>4.752102789424866e-11</v>
+        <v>6.104670682714566e-11</v>
       </c>
       <c r="N285" t="n">
-        <v>1.129226818005308e-05</v>
+        <v>6.027414171630165e-09</v>
       </c>
       <c r="O285" t="n">
-        <v>0.7064474730738666</v>
+        <v>0.9998532924043954</v>
       </c>
       <c r="P285" t="inlineStr">
         <is>
@@ -17273,57 +17273,57 @@
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>o__Bacteroidales(reject)</t>
+          <t>o__Bacteroidales</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>RUG753.fasta</t>
+          <t>RUG751.fasta</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>2.220039930714933e-14</v>
+        <v>3.52491118983129e-14</v>
       </c>
       <c r="C286" t="n">
-        <v>3.484818697790466e-12</v>
+        <v>9.433710596943626e-07</v>
       </c>
       <c r="D286" t="n">
-        <v>3.546205189769999e-10</v>
+        <v>8.099509591390516e-05</v>
       </c>
       <c r="E286" t="n">
-        <v>0.994212024563641</v>
+        <v>0.7064474730738666</v>
       </c>
       <c r="F286" t="n">
-        <v>2.888369596150731e-13</v>
+        <v>2.914750960057217e-07</v>
       </c>
       <c r="G286" t="n">
-        <v>5.015668453118719e-05</v>
+        <v>0.01758272895352459</v>
       </c>
       <c r="H286" t="n">
-        <v>7.150133624609252e-06</v>
+        <v>6.668397603705251e-06</v>
       </c>
       <c r="I286" t="n">
-        <v>7.899747567353685e-08</v>
+        <v>0.2741925723913428</v>
       </c>
       <c r="J286" t="n">
-        <v>2.220039930714933e-14</v>
+        <v>3.524911189831286e-14</v>
       </c>
       <c r="K286" t="n">
-        <v>0.005730588254164341</v>
+        <v>0.001677034925785862</v>
       </c>
       <c r="L286" t="n">
-        <v>2.220039930714933e-14</v>
+        <v>3.524911189831286e-14</v>
       </c>
       <c r="M286" t="n">
-        <v>1.00808010509857e-09</v>
+        <v>4.752102789424866e-11</v>
       </c>
       <c r="N286" t="n">
-        <v>2.220039930714933e-14</v>
+        <v>1.129226818005308e-05</v>
       </c>
       <c r="O286" t="n">
-        <v>0.994212024563641</v>
+        <v>0.7064474730738666</v>
       </c>
       <c r="P286" t="inlineStr">
         <is>
@@ -17332,57 +17332,57 @@
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>o__Bacteroidales</t>
+          <t>o__Bacteroidales(reject)</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>RUG754.fasta</t>
+          <t>RUG753.fasta</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>2.220074021517607e-14</v>
+        <v>2.220039930714933e-14</v>
       </c>
       <c r="C287" t="n">
-        <v>2.220074021517607e-14</v>
+        <v>3.484818697790466e-12</v>
       </c>
       <c r="D287" t="n">
-        <v>2.220074021517607e-14</v>
+        <v>3.546205189769999e-10</v>
       </c>
       <c r="E287" t="n">
-        <v>0.9473886861193421</v>
+        <v>0.994212024563641</v>
       </c>
       <c r="F287" t="n">
-        <v>2.220074021517607e-14</v>
+        <v>2.888369596150731e-13</v>
       </c>
       <c r="G287" t="n">
-        <v>0.05260361279992673</v>
+        <v>5.015668453118719e-05</v>
       </c>
       <c r="H287" t="n">
-        <v>2.66654625566222e-08</v>
+        <v>7.150133624609252e-06</v>
       </c>
       <c r="I287" t="n">
-        <v>6.743496134914938e-06</v>
+        <v>7.899747567353685e-08</v>
       </c>
       <c r="J287" t="n">
-        <v>2.220074021517607e-14</v>
+        <v>2.220039930714933e-14</v>
       </c>
       <c r="K287" t="n">
-        <v>9.309189562851513e-07</v>
+        <v>0.005730588254164341</v>
       </c>
       <c r="L287" t="n">
-        <v>2.220074021517607e-14</v>
+        <v>2.220039930714933e-14</v>
       </c>
       <c r="M287" t="n">
-        <v>2.220074021517607e-14</v>
+        <v>1.00808010509857e-09</v>
       </c>
       <c r="N287" t="n">
-        <v>2.220074021517607e-14</v>
+        <v>2.220039930714933e-14</v>
       </c>
       <c r="O287" t="n">
-        <v>0.9473886861193421</v>
+        <v>0.994212024563641</v>
       </c>
       <c r="P287" t="inlineStr">
         <is>
@@ -17398,50 +17398,50 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>RUG755.fasta</t>
+          <t>RUG754.fasta</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>2.220418387000705e-14</v>
+        <v>2.220074021517607e-14</v>
       </c>
       <c r="C288" t="n">
-        <v>2.220418387000705e-14</v>
+        <v>2.220074021517607e-14</v>
       </c>
       <c r="D288" t="n">
-        <v>2.220418387000705e-14</v>
+        <v>2.220074021517607e-14</v>
       </c>
       <c r="E288" t="n">
-        <v>0.9998379691520293</v>
+        <v>0.9473886861193421</v>
       </c>
       <c r="F288" t="n">
-        <v>3.501170951540573e-13</v>
+        <v>2.220074021517607e-14</v>
       </c>
       <c r="G288" t="n">
-        <v>0.0001563265165227188</v>
+        <v>0.05260361279992673</v>
       </c>
       <c r="H288" t="n">
-        <v>3.158867499697437e-11</v>
+        <v>2.66654625566222e-08</v>
       </c>
       <c r="I288" t="n">
-        <v>1.856443130477378e-09</v>
+        <v>6.743496134914938e-06</v>
       </c>
       <c r="J288" t="n">
-        <v>2.220418387000705e-14</v>
+        <v>2.220074021517607e-14</v>
       </c>
       <c r="K288" t="n">
-        <v>5.702442910441116e-06</v>
+        <v>9.309189562851513e-07</v>
       </c>
       <c r="L288" t="n">
-        <v>2.220418387000705e-14</v>
+        <v>2.220074021517607e-14</v>
       </c>
       <c r="M288" t="n">
-        <v>2.220418387000705e-14</v>
+        <v>2.220074021517607e-14</v>
       </c>
       <c r="N288" t="n">
-        <v>2.220418387000705e-14</v>
+        <v>2.220074021517607e-14</v>
       </c>
       <c r="O288" t="n">
-        <v>0.9998379691520293</v>
+        <v>0.9473886861193421</v>
       </c>
       <c r="P288" t="inlineStr">
         <is>
@@ -17457,50 +17457,50 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>RUG759.fasta</t>
+          <t>RUG755.fasta</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>2.220043741303883e-14</v>
+        <v>2.220418387000705e-14</v>
       </c>
       <c r="C289" t="n">
-        <v>2.220043741303883e-14</v>
+        <v>2.220418387000705e-14</v>
       </c>
       <c r="D289" t="n">
-        <v>2.220043741303883e-14</v>
+        <v>2.220418387000705e-14</v>
       </c>
       <c r="E289" t="n">
-        <v>0.9821047290994745</v>
+        <v>0.9998379691520293</v>
       </c>
       <c r="F289" t="n">
-        <v>2.220043741303883e-14</v>
+        <v>3.501170951540573e-13</v>
       </c>
       <c r="G289" t="n">
-        <v>1.025929324311897e-06</v>
+        <v>0.0001563265165227188</v>
       </c>
       <c r="H289" t="n">
-        <v>1.186666533631731e-08</v>
+        <v>3.158867499697437e-11</v>
       </c>
       <c r="I289" t="n">
-        <v>2.785631517072832e-12</v>
+        <v>1.856443130477378e-09</v>
       </c>
       <c r="J289" t="n">
-        <v>2.220043741303883e-14</v>
+        <v>2.220418387000705e-14</v>
       </c>
       <c r="K289" t="n">
-        <v>0.0178942331012818</v>
+        <v>5.702442910441116e-06</v>
       </c>
       <c r="L289" t="n">
-        <v>2.220043741303883e-14</v>
+        <v>2.220418387000705e-14</v>
       </c>
       <c r="M289" t="n">
-        <v>3.129794619768413e-13</v>
+        <v>2.220418387000705e-14</v>
       </c>
       <c r="N289" t="n">
-        <v>2.220043741303883e-14</v>
+        <v>2.220418387000705e-14</v>
       </c>
       <c r="O289" t="n">
-        <v>0.9821047290994745</v>
+        <v>0.9998379691520293</v>
       </c>
       <c r="P289" t="inlineStr">
         <is>
@@ -17516,50 +17516,50 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>RUG765.fasta</t>
+          <t>RUG759.fasta</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>2.220366083970934e-14</v>
+        <v>2.220043741303883e-14</v>
       </c>
       <c r="C290" t="n">
-        <v>1.330596696457889e-13</v>
+        <v>2.220043741303883e-14</v>
       </c>
       <c r="D290" t="n">
-        <v>1.029176531579489e-09</v>
+        <v>2.220043741303883e-14</v>
       </c>
       <c r="E290" t="n">
-        <v>0.9995311129861385</v>
+        <v>0.9821047290994745</v>
       </c>
       <c r="F290" t="n">
-        <v>1.136537145329573e-12</v>
+        <v>2.220043741303883e-14</v>
       </c>
       <c r="G290" t="n">
-        <v>0.0003073894986637142</v>
+        <v>1.025929324311897e-06</v>
       </c>
       <c r="H290" t="n">
-        <v>1.494013723875716e-05</v>
+        <v>1.186666533631731e-08</v>
       </c>
       <c r="I290" t="n">
-        <v>4.800609932293112e-08</v>
+        <v>2.785631517072832e-12</v>
       </c>
       <c r="J290" t="n">
-        <v>2.220366083970934e-14</v>
+        <v>2.220043741303883e-14</v>
       </c>
       <c r="K290" t="n">
-        <v>0.0001463695665792903</v>
+        <v>0.0178942331012818</v>
       </c>
       <c r="L290" t="n">
-        <v>2.220366083970934e-14</v>
+        <v>2.220043741303883e-14</v>
       </c>
       <c r="M290" t="n">
-        <v>1.387747454909191e-07</v>
+        <v>3.129794619768413e-13</v>
       </c>
       <c r="N290" t="n">
-        <v>2.220366083970934e-14</v>
+        <v>2.220043741303883e-14</v>
       </c>
       <c r="O290" t="n">
-        <v>0.9995311129861385</v>
+        <v>0.9821047290994745</v>
       </c>
       <c r="P290" t="inlineStr">
         <is>
@@ -17575,50 +17575,50 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>RUG766.fasta</t>
+          <t>RUG765.fasta</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>2.220071561214727e-14</v>
+        <v>2.220366083970934e-14</v>
       </c>
       <c r="C291" t="n">
-        <v>2.588562043488088e-12</v>
+        <v>1.330596696457889e-13</v>
       </c>
       <c r="D291" t="n">
-        <v>9.115191834908655e-13</v>
+        <v>1.029176531579489e-09</v>
       </c>
       <c r="E291" t="n">
-        <v>0.9968297909362994</v>
+        <v>0.9995311129861385</v>
       </c>
       <c r="F291" t="n">
-        <v>2.220071561214727e-14</v>
+        <v>1.136537145329573e-12</v>
       </c>
       <c r="G291" t="n">
-        <v>0.002025490913823113</v>
+        <v>0.0003073894986637142</v>
       </c>
       <c r="H291" t="n">
-        <v>5.50304417600508e-07</v>
+        <v>1.494013723875716e-05</v>
       </c>
       <c r="I291" t="n">
-        <v>2.892016429003313e-09</v>
+        <v>4.800609932293112e-08</v>
       </c>
       <c r="J291" t="n">
-        <v>2.220071561214727e-14</v>
+        <v>2.220366083970934e-14</v>
       </c>
       <c r="K291" t="n">
-        <v>0.001144101975580258</v>
+        <v>0.0001463695665792903</v>
       </c>
       <c r="L291" t="n">
-        <v>2.220071561214727e-14</v>
+        <v>2.220366083970934e-14</v>
       </c>
       <c r="M291" t="n">
-        <v>6.297425229271336e-08</v>
+        <v>1.387747454909191e-07</v>
       </c>
       <c r="N291" t="n">
-        <v>2.220071561214727e-14</v>
+        <v>2.220366083970934e-14</v>
       </c>
       <c r="O291" t="n">
-        <v>0.9968297909362994</v>
+        <v>0.9995311129861385</v>
       </c>
       <c r="P291" t="inlineStr">
         <is>
@@ -17634,50 +17634,50 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>RUG771.fasta</t>
+          <t>RUG766.fasta</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>2.220085017125282e-14</v>
+        <v>2.220071561214727e-14</v>
       </c>
       <c r="C292" t="n">
-        <v>8.790734594545356e-12</v>
+        <v>2.588562043488088e-12</v>
       </c>
       <c r="D292" t="n">
-        <v>9.39003912124628e-13</v>
+        <v>9.115191834908655e-13</v>
       </c>
       <c r="E292" t="n">
-        <v>0.9978729668493973</v>
+        <v>0.9968297909362994</v>
       </c>
       <c r="F292" t="n">
-        <v>2.220085017125282e-14</v>
+        <v>2.220071561214727e-14</v>
       </c>
       <c r="G292" t="n">
-        <v>0.0001058530101996123</v>
+        <v>0.002025490913823113</v>
       </c>
       <c r="H292" t="n">
-        <v>2.548045842856368e-08</v>
+        <v>5.50304417600508e-07</v>
       </c>
       <c r="I292" t="n">
-        <v>7.228148495649652e-10</v>
+        <v>2.892016429003313e-09</v>
       </c>
       <c r="J292" t="n">
-        <v>2.220085017125282e-14</v>
+        <v>2.220071561214727e-14</v>
       </c>
       <c r="K292" t="n">
-        <v>0.002021139793538523</v>
+        <v>0.001144101975580258</v>
       </c>
       <c r="L292" t="n">
-        <v>2.220085017125282e-14</v>
+        <v>2.220071561214727e-14</v>
       </c>
       <c r="M292" t="n">
-        <v>1.413375050309706e-08</v>
+        <v>6.297425229271336e-08</v>
       </c>
       <c r="N292" t="n">
-        <v>2.220085017125282e-14</v>
+        <v>2.220071561214727e-14</v>
       </c>
       <c r="O292" t="n">
-        <v>0.9978729668493973</v>
+        <v>0.9968297909362994</v>
       </c>
       <c r="P292" t="inlineStr">
         <is>
@@ -17693,50 +17693,50 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>RUG773.fasta</t>
+          <t>RUG771.fasta</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>2.220306855625839e-14</v>
+        <v>2.220085017125282e-14</v>
       </c>
       <c r="C293" t="n">
-        <v>2.220306855625839e-14</v>
+        <v>8.790734594545356e-12</v>
       </c>
       <c r="D293" t="n">
-        <v>2.220306855625839e-14</v>
+        <v>9.39003912124628e-13</v>
       </c>
       <c r="E293" t="n">
-        <v>0.9803726043078135</v>
+        <v>0.9978729668493973</v>
       </c>
       <c r="F293" t="n">
-        <v>2.220306855625839e-14</v>
+        <v>2.220085017125282e-14</v>
       </c>
       <c r="G293" t="n">
-        <v>0.00600795698660661</v>
+        <v>0.0001058530101996123</v>
       </c>
       <c r="H293" t="n">
-        <v>7.697498555264984e-05</v>
+        <v>2.548045842856368e-08</v>
       </c>
       <c r="I293" t="n">
-        <v>0.01354246287211048</v>
+        <v>7.228148495649652e-10</v>
       </c>
       <c r="J293" t="n">
-        <v>2.220306855625839e-14</v>
+        <v>2.220085017125282e-14</v>
       </c>
       <c r="K293" t="n">
-        <v>5.475082082334701e-14</v>
+        <v>0.002021139793538523</v>
       </c>
       <c r="L293" t="n">
-        <v>2.220306855625839e-14</v>
+        <v>2.220085017125282e-14</v>
       </c>
       <c r="M293" t="n">
-        <v>8.477064011372608e-10</v>
+        <v>1.413375050309706e-08</v>
       </c>
       <c r="N293" t="n">
-        <v>2.220306855625839e-14</v>
+        <v>2.220085017125282e-14</v>
       </c>
       <c r="O293" t="n">
-        <v>0.9803726043078135</v>
+        <v>0.9978729668493973</v>
       </c>
       <c r="P293" t="inlineStr">
         <is>
@@ -17752,50 +17752,50 @@
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>RUG782.fasta</t>
+          <t>RUG773.fasta</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>2.220414700137004e-14</v>
+        <v>2.220306855625839e-14</v>
       </c>
       <c r="C294" t="n">
-        <v>5.174194697612958e-12</v>
+        <v>2.220306855625839e-14</v>
       </c>
       <c r="D294" t="n">
-        <v>3.194083838090172e-09</v>
+        <v>2.220306855625839e-14</v>
       </c>
       <c r="E294" t="n">
-        <v>0.9998163417089774</v>
+        <v>0.9803726043078135</v>
       </c>
       <c r="F294" t="n">
-        <v>2.500469231908732e-13</v>
+        <v>2.220306855625839e-14</v>
       </c>
       <c r="G294" t="n">
-        <v>3.659752977470438e-06</v>
+        <v>0.00600795698660661</v>
       </c>
       <c r="H294" t="n">
-        <v>1.830086450027771e-05</v>
+        <v>7.697498555264984e-05</v>
       </c>
       <c r="I294" t="n">
-        <v>1.153255383256173e-07</v>
+        <v>0.01354246287211048</v>
       </c>
       <c r="J294" t="n">
-        <v>2.220414700137004e-14</v>
+        <v>2.220306855625839e-14</v>
       </c>
       <c r="K294" t="n">
-        <v>0.000161577473684602</v>
+        <v>5.475082082334701e-14</v>
       </c>
       <c r="L294" t="n">
-        <v>2.220414700137004e-14</v>
+        <v>2.220306855625839e-14</v>
       </c>
       <c r="M294" t="n">
-        <v>1.674725152549287e-09</v>
+        <v>8.477064011372608e-10</v>
       </c>
       <c r="N294" t="n">
-        <v>2.220414700137004e-14</v>
+        <v>2.220306855625839e-14</v>
       </c>
       <c r="O294" t="n">
-        <v>0.9998163417089774</v>
+        <v>0.9803726043078135</v>
       </c>
       <c r="P294" t="inlineStr">
         <is>
@@ -17811,50 +17811,50 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>RUG784.fasta</t>
+          <t>RUG782.fasta</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>2.220199433427301e-14</v>
+        <v>2.220414700137004e-14</v>
       </c>
       <c r="C295" t="n">
-        <v>2.220199433427301e-14</v>
+        <v>5.174194697612958e-12</v>
       </c>
       <c r="D295" t="n">
-        <v>2.220199433427301e-14</v>
+        <v>3.194083838090172e-09</v>
       </c>
       <c r="E295" t="n">
-        <v>0.9985499035448943</v>
+        <v>0.9998163417089774</v>
       </c>
       <c r="F295" t="n">
-        <v>2.220199433427301e-14</v>
+        <v>2.500469231908732e-13</v>
       </c>
       <c r="G295" t="n">
-        <v>0.001355353989237789</v>
+        <v>3.659752977470438e-06</v>
       </c>
       <c r="H295" t="n">
-        <v>3.136064157826749e-10</v>
+        <v>1.830086450027771e-05</v>
       </c>
       <c r="I295" t="n">
-        <v>9.47415521466348e-05</v>
+        <v>1.153255383256173e-07</v>
       </c>
       <c r="J295" t="n">
-        <v>2.220199433427301e-14</v>
+        <v>2.220414700137004e-14</v>
       </c>
       <c r="K295" t="n">
-        <v>5.999372365723839e-10</v>
+        <v>0.000161577473684602</v>
       </c>
       <c r="L295" t="n">
-        <v>2.220199433427301e-14</v>
+        <v>2.220414700137004e-14</v>
       </c>
       <c r="M295" t="n">
-        <v>2.220199433427301e-14</v>
+        <v>1.674725152549287e-09</v>
       </c>
       <c r="N295" t="n">
-        <v>2.220199433427301e-14</v>
+        <v>2.220414700137004e-14</v>
       </c>
       <c r="O295" t="n">
-        <v>0.9985499035448943</v>
+        <v>0.9998163417089774</v>
       </c>
       <c r="P295" t="inlineStr">
         <is>
@@ -17870,50 +17870,50 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>RUG785.fasta</t>
+          <t>RUG784.fasta</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>2.220347138769624e-14</v>
+        <v>2.220199433427301e-14</v>
       </c>
       <c r="C296" t="n">
-        <v>8.780260050434456e-12</v>
+        <v>2.220199433427301e-14</v>
       </c>
       <c r="D296" t="n">
-        <v>3.406953188859368e-12</v>
+        <v>2.220199433427301e-14</v>
       </c>
       <c r="E296" t="n">
-        <v>0.999419905273492</v>
+        <v>0.9985499035448943</v>
       </c>
       <c r="F296" t="n">
-        <v>2.220347138769624e-14</v>
+        <v>2.220199433427301e-14</v>
       </c>
       <c r="G296" t="n">
-        <v>7.47060776845483e-05</v>
+        <v>0.001355353989237789</v>
       </c>
       <c r="H296" t="n">
-        <v>6.802749105407613e-08</v>
+        <v>3.136064157826749e-10</v>
       </c>
       <c r="I296" t="n">
-        <v>8.145092152037441e-10</v>
+        <v>9.47415521466348e-05</v>
       </c>
       <c r="J296" t="n">
-        <v>2.220347138769624e-14</v>
+        <v>2.220199433427301e-14</v>
       </c>
       <c r="K296" t="n">
-        <v>0.0005053143924344076</v>
+        <v>5.999372365723839e-10</v>
       </c>
       <c r="L296" t="n">
-        <v>2.220347138769624e-14</v>
+        <v>2.220199433427301e-14</v>
       </c>
       <c r="M296" t="n">
-        <v>5.402090390972368e-09</v>
+        <v>2.220199433427301e-14</v>
       </c>
       <c r="N296" t="n">
-        <v>2.220347138769624e-14</v>
+        <v>2.220199433427301e-14</v>
       </c>
       <c r="O296" t="n">
-        <v>0.999419905273492</v>
+        <v>0.9985499035448943</v>
       </c>
       <c r="P296" t="inlineStr">
         <is>
@@ -17929,50 +17929,50 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>RUG786.fasta</t>
+          <t>RUG785.fasta</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>2.220426525012727e-14</v>
+        <v>2.220347138769624e-14</v>
       </c>
       <c r="C297" t="n">
-        <v>9.339127302978233e-08</v>
+        <v>8.780260050434456e-12</v>
       </c>
       <c r="D297" t="n">
-        <v>3.212408111745832e-10</v>
+        <v>3.406953188859368e-12</v>
       </c>
       <c r="E297" t="n">
-        <v>0.9998854922334826</v>
+        <v>0.999419905273492</v>
       </c>
       <c r="F297" t="n">
-        <v>2.858707457985903e-13</v>
+        <v>2.220347138769624e-14</v>
       </c>
       <c r="G297" t="n">
-        <v>1.593226295435409e-05</v>
+        <v>7.47060776845483e-05</v>
       </c>
       <c r="H297" t="n">
-        <v>1.431459233013301e-06</v>
+        <v>6.802749105407613e-08</v>
       </c>
       <c r="I297" t="n">
-        <v>8.403430908230062e-05</v>
+        <v>8.145092152037441e-10</v>
       </c>
       <c r="J297" t="n">
-        <v>2.220426525012727e-14</v>
+        <v>2.220347138769624e-14</v>
       </c>
       <c r="K297" t="n">
-        <v>1.301381286737717e-05</v>
+        <v>0.0005053143924344076</v>
       </c>
       <c r="L297" t="n">
-        <v>2.220426525012727e-14</v>
+        <v>2.220347138769624e-14</v>
       </c>
       <c r="M297" t="n">
-        <v>1.638182811293553e-11</v>
+        <v>5.402090390972368e-09</v>
       </c>
       <c r="N297" t="n">
-        <v>2.19313221886121e-09</v>
+        <v>2.220347138769624e-14</v>
       </c>
       <c r="O297" t="n">
-        <v>0.9998854922334826</v>
+        <v>0.999419905273492</v>
       </c>
       <c r="P297" t="inlineStr">
         <is>
@@ -17988,50 +17988,50 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>RUG788.fasta</t>
+          <t>RUG786.fasta</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>2.220047679490409e-14</v>
+        <v>2.220426525012727e-14</v>
       </c>
       <c r="C298" t="n">
-        <v>6.667146991517548e-13</v>
+        <v>9.339127302978233e-08</v>
       </c>
       <c r="D298" t="n">
-        <v>4.30479109973169e-11</v>
+        <v>3.212408111745832e-10</v>
       </c>
       <c r="E298" t="n">
-        <v>0.9973216064575873</v>
+        <v>0.9998854922334826</v>
       </c>
       <c r="F298" t="n">
-        <v>2.220047679490409e-14</v>
+        <v>2.858707457985903e-13</v>
       </c>
       <c r="G298" t="n">
-        <v>0.00124344830647023</v>
+        <v>1.593226295435409e-05</v>
       </c>
       <c r="H298" t="n">
-        <v>8.600885317286705e-05</v>
+        <v>1.431459233013301e-06</v>
       </c>
       <c r="I298" t="n">
-        <v>2.277892044121495e-08</v>
+        <v>8.403430908230062e-05</v>
       </c>
       <c r="J298" t="n">
-        <v>2.220047679490409e-14</v>
+        <v>2.220426525012727e-14</v>
       </c>
       <c r="K298" t="n">
-        <v>0.001348608036629201</v>
+        <v>1.301381286737717e-05</v>
       </c>
       <c r="L298" t="n">
-        <v>2.220047679490409e-14</v>
+        <v>2.220426525012727e-14</v>
       </c>
       <c r="M298" t="n">
-        <v>3.055233943128872e-07</v>
+        <v>1.638182811293553e-11</v>
       </c>
       <c r="N298" t="n">
-        <v>2.220047679490409e-14</v>
+        <v>2.19313221886121e-09</v>
       </c>
       <c r="O298" t="n">
-        <v>0.9973216064575873</v>
+        <v>0.9998854922334826</v>
       </c>
       <c r="P298" t="inlineStr">
         <is>
@@ -18047,50 +18047,50 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>RUG790.fasta</t>
+          <t>RUG788.fasta</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>2.220340339902657e-14</v>
+        <v>2.220047679490409e-14</v>
       </c>
       <c r="C299" t="n">
-        <v>2.220340339902657e-14</v>
+        <v>6.667146991517548e-13</v>
       </c>
       <c r="D299" t="n">
-        <v>2.220340339902657e-14</v>
+        <v>4.30479109973169e-11</v>
       </c>
       <c r="E299" t="n">
-        <v>0.9993704645666545</v>
+        <v>0.9973216064575873</v>
       </c>
       <c r="F299" t="n">
-        <v>2.220340339902657e-14</v>
+        <v>2.220047679490409e-14</v>
       </c>
       <c r="G299" t="n">
-        <v>0.0002249172940455974</v>
+        <v>0.00124344830647023</v>
       </c>
       <c r="H299" t="n">
-        <v>1.778595040459122e-11</v>
+        <v>8.600885317286705e-05</v>
       </c>
       <c r="I299" t="n">
-        <v>0.0003157857315073112</v>
+        <v>2.277892044121495e-08</v>
       </c>
       <c r="J299" t="n">
-        <v>2.220340339902657e-14</v>
+        <v>2.220047679490409e-14</v>
       </c>
       <c r="K299" t="n">
-        <v>8.883238982909756e-05</v>
+        <v>0.001348608036629201</v>
       </c>
       <c r="L299" t="n">
-        <v>2.220340339902657e-14</v>
+        <v>2.220047679490409e-14</v>
       </c>
       <c r="M299" t="n">
-        <v>2.220340339902657e-14</v>
+        <v>3.055233943128872e-07</v>
       </c>
       <c r="N299" t="n">
-        <v>2.220340339902657e-14</v>
+        <v>2.220047679490409e-14</v>
       </c>
       <c r="O299" t="n">
-        <v>0.9993704645666545</v>
+        <v>0.9973216064575873</v>
       </c>
       <c r="P299" t="inlineStr">
         <is>
@@ -18106,50 +18106,50 @@
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>RUG795.fasta</t>
+          <t>RUG790.fasta</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>2.220337081905886e-14</v>
+        <v>2.220340339902657e-14</v>
       </c>
       <c r="C300" t="n">
-        <v>2.220337081905886e-14</v>
+        <v>2.220340339902657e-14</v>
       </c>
       <c r="D300" t="n">
-        <v>6.61135158087005e-08</v>
+        <v>2.220340339902657e-14</v>
       </c>
       <c r="E300" t="n">
-        <v>0.9993585193894523</v>
+        <v>0.9993704645666545</v>
       </c>
       <c r="F300" t="n">
-        <v>2.220337081905886e-14</v>
+        <v>2.220340339902657e-14</v>
       </c>
       <c r="G300" t="n">
-        <v>0.0003434567138727558</v>
+        <v>0.0002249172940455974</v>
       </c>
       <c r="H300" t="n">
-        <v>1.108248142653659e-07</v>
+        <v>1.778595040459122e-11</v>
       </c>
       <c r="I300" t="n">
-        <v>3.022015524864325e-07</v>
+        <v>0.0003157857315073112</v>
       </c>
       <c r="J300" t="n">
-        <v>2.220337081905886e-14</v>
+        <v>2.220340339902657e-14</v>
       </c>
       <c r="K300" t="n">
-        <v>0.0002975406562393528</v>
+        <v>8.883238982909756e-05</v>
       </c>
       <c r="L300" t="n">
-        <v>2.220337081905886e-14</v>
+        <v>2.220340339902657e-14</v>
       </c>
       <c r="M300" t="n">
-        <v>4.100419699043376e-09</v>
+        <v>2.220340339902657e-14</v>
       </c>
       <c r="N300" t="n">
-        <v>2.220337081905886e-14</v>
+        <v>2.220340339902657e-14</v>
       </c>
       <c r="O300" t="n">
-        <v>0.9993585193894523</v>
+        <v>0.9993704645666545</v>
       </c>
       <c r="P300" t="inlineStr">
         <is>
@@ -18165,50 +18165,50 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>RUG800.fasta</t>
+          <t>RUG795.fasta</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>2.220378765964729e-14</v>
+        <v>2.220337081905886e-14</v>
       </c>
       <c r="C301" t="n">
-        <v>2.220378765964729e-14</v>
+        <v>2.220337081905886e-14</v>
       </c>
       <c r="D301" t="n">
-        <v>2.220378765964729e-14</v>
+        <v>6.61135158087005e-08</v>
       </c>
       <c r="E301" t="n">
-        <v>0.9996056201255182</v>
+        <v>0.9993585193894523</v>
       </c>
       <c r="F301" t="n">
-        <v>2.052646128547679e-13</v>
+        <v>2.220337081905886e-14</v>
       </c>
       <c r="G301" t="n">
-        <v>0.0003874616396585386</v>
+        <v>0.0003434567138727558</v>
       </c>
       <c r="H301" t="n">
-        <v>2.397145913489192e-10</v>
+        <v>1.108248142653659e-07</v>
       </c>
       <c r="I301" t="n">
-        <v>1.650277800953349e-08</v>
+        <v>3.022015524864325e-07</v>
       </c>
       <c r="J301" t="n">
-        <v>2.220378765964729e-14</v>
+        <v>2.220337081905886e-14</v>
       </c>
       <c r="K301" t="n">
-        <v>6.901490705715769e-06</v>
+        <v>0.0002975406562393528</v>
       </c>
       <c r="L301" t="n">
-        <v>2.220378765964729e-14</v>
+        <v>2.220337081905886e-14</v>
       </c>
       <c r="M301" t="n">
-        <v>1.28657414655644e-12</v>
+        <v>4.100419699043376e-09</v>
       </c>
       <c r="N301" t="n">
-        <v>2.220378765964729e-14</v>
+        <v>2.220337081905886e-14</v>
       </c>
       <c r="O301" t="n">
-        <v>0.9996056201255182</v>
+        <v>0.9993585193894523</v>
       </c>
       <c r="P301" t="inlineStr">
         <is>
@@ -18224,50 +18224,50 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>RUG812.fasta</t>
+          <t>RUG800.fasta</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>2.220032836129398e-14</v>
+        <v>2.220378765964729e-14</v>
       </c>
       <c r="C302" t="n">
-        <v>1.067796072584076e-09</v>
+        <v>2.220378765964729e-14</v>
       </c>
       <c r="D302" t="n">
-        <v>1.959998203743237e-09</v>
+        <v>2.220378765964729e-14</v>
       </c>
       <c r="E302" t="n">
-        <v>0.9974774082287395</v>
+        <v>0.9996056201255182</v>
       </c>
       <c r="F302" t="n">
-        <v>1.00211198788823e-10</v>
+        <v>2.052646128547679e-13</v>
       </c>
       <c r="G302" t="n">
-        <v>0.0002146620391531692</v>
+        <v>0.0003874616396585386</v>
       </c>
       <c r="H302" t="n">
-        <v>1.766906412504262e-06</v>
+        <v>2.397145913489192e-10</v>
       </c>
       <c r="I302" t="n">
-        <v>1.272904383079924e-06</v>
+        <v>1.650277800953349e-08</v>
       </c>
       <c r="J302" t="n">
-        <v>2.220032836129398e-14</v>
+        <v>2.220378765964729e-14</v>
       </c>
       <c r="K302" t="n">
-        <v>0.00230481163981872</v>
+        <v>6.901490705715769e-06</v>
       </c>
       <c r="L302" t="n">
-        <v>2.220032836129398e-14</v>
+        <v>2.220378765964729e-14</v>
       </c>
       <c r="M302" t="n">
-        <v>7.514266473099073e-08</v>
+        <v>1.28657414655644e-12</v>
       </c>
       <c r="N302" t="n">
-        <v>1.07563255578699e-11</v>
+        <v>2.220378765964729e-14</v>
       </c>
       <c r="O302" t="n">
-        <v>0.9974774082287395</v>
+        <v>0.9996056201255182</v>
       </c>
       <c r="P302" t="inlineStr">
         <is>
@@ -18283,50 +18283,50 @@
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>RUG815.fasta</t>
+          <t>RUG812.fasta</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>2.220087864902433e-14</v>
+        <v>2.220032836129398e-14</v>
       </c>
       <c r="C303" t="n">
-        <v>2.220087864902433e-14</v>
+        <v>1.067796072584076e-09</v>
       </c>
       <c r="D303" t="n">
-        <v>2.220087864902433e-14</v>
+        <v>1.959998203743237e-09</v>
       </c>
       <c r="E303" t="n">
-        <v>0.9978898700591526</v>
+        <v>0.9974774082287395</v>
       </c>
       <c r="F303" t="n">
-        <v>2.220087864902433e-14</v>
+        <v>1.00211198788823e-10</v>
       </c>
       <c r="G303" t="n">
-        <v>3.669121648379535e-07</v>
+        <v>0.0002146620391531692</v>
       </c>
       <c r="H303" t="n">
-        <v>1.654715694998822e-09</v>
+        <v>1.766906412504262e-06</v>
       </c>
       <c r="I303" t="n">
-        <v>6.349074205713556e-13</v>
+        <v>1.272904383079924e-06</v>
       </c>
       <c r="J303" t="n">
-        <v>2.220087864902433e-14</v>
+        <v>2.220032836129398e-14</v>
       </c>
       <c r="K303" t="n">
-        <v>0.00210976137315422</v>
+        <v>0.00230481163981872</v>
       </c>
       <c r="L303" t="n">
-        <v>2.220087864902433e-14</v>
+        <v>2.220032836129398e-14</v>
       </c>
       <c r="M303" t="n">
-        <v>2.220087864902433e-14</v>
+        <v>7.514266473099073e-08</v>
       </c>
       <c r="N303" t="n">
-        <v>2.220087864902433e-14</v>
+        <v>1.07563255578699e-11</v>
       </c>
       <c r="O303" t="n">
-        <v>0.9978898700591526</v>
+        <v>0.9974774082287395</v>
       </c>
       <c r="P303" t="inlineStr">
         <is>
@@ -18342,50 +18342,50 @@
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>RUG818.fasta</t>
+          <t>RUG815.fasta</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>2.220309715735848e-14</v>
+        <v>2.220087864902433e-14</v>
       </c>
       <c r="C304" t="n">
-        <v>2.220309715735848e-14</v>
+        <v>2.220087864902433e-14</v>
       </c>
       <c r="D304" t="n">
-        <v>2.220309715735848e-14</v>
+        <v>2.220087864902433e-14</v>
       </c>
       <c r="E304" t="n">
-        <v>0.9991883486661141</v>
+        <v>0.9978898700591526</v>
       </c>
       <c r="F304" t="n">
-        <v>2.220309715735848e-14</v>
+        <v>2.220087864902433e-14</v>
       </c>
       <c r="G304" t="n">
-        <v>0.0008082739184594194</v>
+        <v>3.669121648379535e-07</v>
       </c>
       <c r="H304" t="n">
-        <v>9.320177655070269e-07</v>
+        <v>1.654715694998822e-09</v>
       </c>
       <c r="I304" t="n">
-        <v>2.445133518492127e-06</v>
+        <v>6.349074205713556e-13</v>
       </c>
       <c r="J304" t="n">
-        <v>2.220309715735848e-14</v>
+        <v>2.220087864902433e-14</v>
       </c>
       <c r="K304" t="n">
-        <v>2.639647955310387e-10</v>
+        <v>0.00210976137315422</v>
       </c>
       <c r="L304" t="n">
-        <v>2.220309715735848e-14</v>
+        <v>2.220087864902433e-14</v>
       </c>
       <c r="M304" t="n">
-        <v>2.220309715735848e-14</v>
+        <v>2.220087864902433e-14</v>
       </c>
       <c r="N304" t="n">
-        <v>2.220309715735848e-14</v>
+        <v>2.220087864902433e-14</v>
       </c>
       <c r="O304" t="n">
-        <v>0.9991883486661141</v>
+        <v>0.9978898700591526</v>
       </c>
       <c r="P304" t="inlineStr">
         <is>
@@ -18401,50 +18401,50 @@
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>RUG826.fasta</t>
+          <t>RUG818.fasta</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>2.226830419466165e-14</v>
+        <v>2.220309715735848e-14</v>
       </c>
       <c r="C305" t="n">
-        <v>2.226830419466165e-14</v>
+        <v>2.220309715735848e-14</v>
       </c>
       <c r="D305" t="n">
-        <v>2.226830419466165e-14</v>
+        <v>2.220309715735848e-14</v>
       </c>
       <c r="E305" t="n">
-        <v>0.9952034179322152</v>
+        <v>0.9991883486661141</v>
       </c>
       <c r="F305" t="n">
-        <v>2.226830419466165e-14</v>
+        <v>2.220309715735848e-14</v>
       </c>
       <c r="G305" t="n">
-        <v>0.002410889859358944</v>
+        <v>0.0008082739184594194</v>
       </c>
       <c r="H305" t="n">
-        <v>5.207704847952214e-05</v>
+        <v>9.320177655070269e-07</v>
       </c>
       <c r="I305" t="n">
-        <v>0.002330312589562895</v>
+        <v>2.445133518492127e-06</v>
       </c>
       <c r="J305" t="n">
-        <v>2.226830419466165e-14</v>
+        <v>2.220309715735848e-14</v>
       </c>
       <c r="K305" t="n">
-        <v>2.226830419466165e-14</v>
+        <v>2.639647955310387e-10</v>
       </c>
       <c r="L305" t="n">
-        <v>2.226830419466165e-14</v>
+        <v>2.220309715735848e-14</v>
       </c>
       <c r="M305" t="n">
-        <v>3.302570204970855e-06</v>
+        <v>2.220309715735848e-14</v>
       </c>
       <c r="N305" t="n">
-        <v>2.226830419466165e-14</v>
+        <v>2.220309715735848e-14</v>
       </c>
       <c r="O305" t="n">
-        <v>0.9952034179322152</v>
+        <v>0.9991883486661141</v>
       </c>
       <c r="P305" t="inlineStr">
         <is>
@@ -18460,50 +18460,50 @@
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>RUG827.fasta</t>
+          <t>RUG826.fasta</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>2.220268037261542e-14</v>
+        <v>2.226830419466165e-14</v>
       </c>
       <c r="C306" t="n">
-        <v>2.220268037261542e-14</v>
+        <v>2.226830419466165e-14</v>
       </c>
       <c r="D306" t="n">
-        <v>2.220268037261542e-14</v>
+        <v>2.226830419466165e-14</v>
       </c>
       <c r="E306" t="n">
-        <v>0.9989544762456681</v>
+        <v>0.9952034179322152</v>
       </c>
       <c r="F306" t="n">
-        <v>2.908133097706435e-11</v>
+        <v>2.226830419466165e-14</v>
       </c>
       <c r="G306" t="n">
-        <v>0.0009608192973184716</v>
+        <v>0.002410889859358944</v>
       </c>
       <c r="H306" t="n">
-        <v>8.756035170102965e-06</v>
+        <v>5.207704847952214e-05</v>
       </c>
       <c r="I306" t="n">
-        <v>4.973660827049819e-10</v>
+        <v>0.002330312589562895</v>
       </c>
       <c r="J306" t="n">
-        <v>2.220268037261542e-14</v>
+        <v>2.226830419466165e-14</v>
       </c>
       <c r="K306" t="n">
-        <v>7.594787885102854e-05</v>
+        <v>2.226830419466165e-14</v>
       </c>
       <c r="L306" t="n">
-        <v>2.220268037261542e-14</v>
+        <v>2.226830419466165e-14</v>
       </c>
       <c r="M306" t="n">
-        <v>1.641169919981003e-11</v>
+        <v>3.302570204970855e-06</v>
       </c>
       <c r="N306" t="n">
-        <v>2.220268037261542e-14</v>
+        <v>2.226830419466165e-14</v>
       </c>
       <c r="O306" t="n">
-        <v>0.9989544762456681</v>
+        <v>0.9952034179322152</v>
       </c>
       <c r="P306" t="inlineStr">
         <is>
@@ -18519,50 +18519,50 @@
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>RUG828.fasta</t>
+          <t>RUG827.fasta</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>2.220097717434208e-14</v>
+        <v>2.220268037261542e-14</v>
       </c>
       <c r="C307" t="n">
-        <v>6.73655949088552e-07</v>
+        <v>2.220268037261542e-14</v>
       </c>
       <c r="D307" t="n">
-        <v>1.747582761839019e-05</v>
+        <v>2.220268037261542e-14</v>
       </c>
       <c r="E307" t="n">
-        <v>0.996680064249182</v>
+        <v>0.9989544762456681</v>
       </c>
       <c r="F307" t="n">
-        <v>4.973433952950014e-10</v>
+        <v>2.908133097706435e-11</v>
       </c>
       <c r="G307" t="n">
-        <v>0.0009466963914079245</v>
+        <v>0.0009608192973184716</v>
       </c>
       <c r="H307" t="n">
-        <v>3.716661429253556e-06</v>
+        <v>8.756035170102965e-06</v>
       </c>
       <c r="I307" t="n">
-        <v>0.00161736970608358</v>
+        <v>4.973660827049819e-10</v>
       </c>
       <c r="J307" t="n">
-        <v>2.220097717434208e-14</v>
+        <v>2.220268037261542e-14</v>
       </c>
       <c r="K307" t="n">
-        <v>0.0007067568892164198</v>
+        <v>7.594787885102854e-05</v>
       </c>
       <c r="L307" t="n">
-        <v>2.220097717434208e-14</v>
+        <v>2.220268037261542e-14</v>
       </c>
       <c r="M307" t="n">
-        <v>2.642165090240811e-05</v>
+        <v>1.641169919981003e-11</v>
       </c>
       <c r="N307" t="n">
-        <v>8.244708010837507e-07</v>
+        <v>2.220268037261542e-14</v>
       </c>
       <c r="O307" t="n">
-        <v>0.996680064249182</v>
+        <v>0.9989544762456681</v>
       </c>
       <c r="P307" t="inlineStr">
         <is>
@@ -18578,50 +18578,50 @@
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>RUG837.fasta</t>
+          <t>RUG828.fasta</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>2.220034985762071e-14</v>
+        <v>2.220097717434208e-14</v>
       </c>
       <c r="C308" t="n">
-        <v>2.220034985762071e-14</v>
+        <v>6.73655949088552e-07</v>
       </c>
       <c r="D308" t="n">
-        <v>2.220034985762071e-14</v>
+        <v>1.747582761839019e-05</v>
       </c>
       <c r="E308" t="n">
-        <v>0.9966385426563534</v>
+        <v>0.996680064249182</v>
       </c>
       <c r="F308" t="n">
-        <v>2.220034985762071e-14</v>
+        <v>4.973433952950014e-10</v>
       </c>
       <c r="G308" t="n">
-        <v>5.246006106317044e-05</v>
+        <v>0.0009466963914079245</v>
       </c>
       <c r="H308" t="n">
-        <v>1.08948023016674e-12</v>
+        <v>3.716661429253556e-06</v>
       </c>
       <c r="I308" t="n">
-        <v>2.220034985762071e-14</v>
+        <v>0.00161736970608358</v>
       </c>
       <c r="J308" t="n">
-        <v>2.220034985762071e-14</v>
+        <v>2.220097717434208e-14</v>
       </c>
       <c r="K308" t="n">
-        <v>0.003308997281294014</v>
+        <v>0.0007067568892164198</v>
       </c>
       <c r="L308" t="n">
-        <v>2.220034985762071e-14</v>
+        <v>2.220097717434208e-14</v>
       </c>
       <c r="M308" t="n">
-        <v>2.220034985762071e-14</v>
+        <v>2.642165090240811e-05</v>
       </c>
       <c r="N308" t="n">
-        <v>2.220034985762071e-14</v>
+        <v>8.244708010837507e-07</v>
       </c>
       <c r="O308" t="n">
-        <v>0.9966385426563534</v>
+        <v>0.996680064249182</v>
       </c>
       <c r="P308" t="inlineStr">
         <is>
@@ -18637,50 +18637,50 @@
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>RUG838.fasta</t>
+          <t>RUG837.fasta</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>2.220247202144527e-14</v>
+        <v>2.220034985762071e-14</v>
       </c>
       <c r="C309" t="n">
-        <v>7.546706949916705e-12</v>
+        <v>2.220034985762071e-14</v>
       </c>
       <c r="D309" t="n">
-        <v>1.457927303904422e-09</v>
+        <v>2.220034985762071e-14</v>
       </c>
       <c r="E309" t="n">
-        <v>0.9987926020883349</v>
+        <v>0.9966385426563534</v>
       </c>
       <c r="F309" t="n">
-        <v>5.253647133315476e-11</v>
+        <v>2.220034985762071e-14</v>
       </c>
       <c r="G309" t="n">
-        <v>0.000383600930247292</v>
+        <v>5.246006106317044e-05</v>
       </c>
       <c r="H309" t="n">
-        <v>0.0007892935552513176</v>
+        <v>1.08948023016674e-12</v>
       </c>
       <c r="I309" t="n">
-        <v>4.840978125486601e-08</v>
+        <v>2.220034985762071e-14</v>
       </c>
       <c r="J309" t="n">
-        <v>2.220247202144527e-14</v>
+        <v>2.220034985762071e-14</v>
       </c>
       <c r="K309" t="n">
-        <v>3.17704543157361e-05</v>
+        <v>0.003308997281294014</v>
       </c>
       <c r="L309" t="n">
-        <v>2.220247202144527e-14</v>
+        <v>2.220034985762071e-14</v>
       </c>
       <c r="M309" t="n">
-        <v>2.683043970096685e-06</v>
+        <v>2.220034985762071e-14</v>
       </c>
       <c r="N309" t="n">
-        <v>2.220247202144527e-14</v>
+        <v>2.220034985762071e-14</v>
       </c>
       <c r="O309" t="n">
-        <v>0.9987926020883349</v>
+        <v>0.9966385426563534</v>
       </c>
       <c r="P309" t="inlineStr">
         <is>
@@ -18696,50 +18696,50 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>RUG839.fasta</t>
+          <t>RUG838.fasta</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>2.220311676603027e-14</v>
+        <v>2.220247202144527e-14</v>
       </c>
       <c r="C310" t="n">
-        <v>8.257611393333837e-12</v>
+        <v>7.546706949916705e-12</v>
       </c>
       <c r="D310" t="n">
-        <v>2.220311676603027e-14</v>
+        <v>1.457927303904422e-09</v>
       </c>
       <c r="E310" t="n">
-        <v>0.9992113723135431</v>
+        <v>0.9987926020883349</v>
       </c>
       <c r="F310" t="n">
-        <v>5.306932283802725e-13</v>
+        <v>5.253647133315476e-11</v>
       </c>
       <c r="G310" t="n">
-        <v>0.0007830761194681547</v>
+        <v>0.000383600930247292</v>
       </c>
       <c r="H310" t="n">
-        <v>9.311704430963194e-07</v>
+        <v>0.0007892935552513176</v>
       </c>
       <c r="I310" t="n">
-        <v>3.562132039612618e-08</v>
+        <v>4.840978125486601e-08</v>
       </c>
       <c r="J310" t="n">
-        <v>2.220311676603027e-14</v>
+        <v>2.220247202144527e-14</v>
       </c>
       <c r="K310" t="n">
-        <v>4.584754165103938e-06</v>
+        <v>3.17704543157361e-05</v>
       </c>
       <c r="L310" t="n">
-        <v>2.220311676603027e-14</v>
+        <v>2.220247202144527e-14</v>
       </c>
       <c r="M310" t="n">
-        <v>1.216091633525854e-11</v>
+        <v>2.683043970096685e-06</v>
       </c>
       <c r="N310" t="n">
-        <v>2.220311676603027e-14</v>
+        <v>2.220247202144527e-14</v>
       </c>
       <c r="O310" t="n">
-        <v>0.9992113723135431</v>
+        <v>0.9987926020883349</v>
       </c>
       <c r="P310" t="inlineStr">
         <is>
@@ -18755,50 +18755,50 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>RUG843.fasta</t>
+          <t>RUG839.fasta</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>2.220133171925584e-14</v>
+        <v>2.220311676603027e-14</v>
       </c>
       <c r="C311" t="n">
-        <v>2.220133171925584e-14</v>
+        <v>8.257611393333837e-12</v>
       </c>
       <c r="D311" t="n">
-        <v>2.220133171925584e-14</v>
+        <v>2.220311676603027e-14</v>
       </c>
       <c r="E311" t="n">
-        <v>0.9981579137341728</v>
+        <v>0.9992113723135431</v>
       </c>
       <c r="F311" t="n">
-        <v>1.123062371183544e-11</v>
+        <v>5.306932283802725e-13</v>
       </c>
       <c r="G311" t="n">
-        <v>0.001740816413483182</v>
+        <v>0.0007830761194681547</v>
       </c>
       <c r="H311" t="n">
-        <v>8.741217249547233e-06</v>
+        <v>9.311704430963194e-07</v>
       </c>
       <c r="I311" t="n">
-        <v>9.162369856290952e-10</v>
+        <v>3.562132039612618e-08</v>
       </c>
       <c r="J311" t="n">
-        <v>2.220133171925584e-14</v>
+        <v>2.220311676603027e-14</v>
       </c>
       <c r="K311" t="n">
-        <v>9.252770276905377e-05</v>
+        <v>4.584754165103938e-06</v>
       </c>
       <c r="L311" t="n">
-        <v>2.220133171925584e-14</v>
+        <v>2.220311676603027e-14</v>
       </c>
       <c r="M311" t="n">
-        <v>4.724450536588105e-12</v>
+        <v>1.216091633525854e-11</v>
       </c>
       <c r="N311" t="n">
-        <v>2.220133171925584e-14</v>
+        <v>2.220311676603027e-14</v>
       </c>
       <c r="O311" t="n">
-        <v>0.9981579137341728</v>
+        <v>0.9992113723135431</v>
       </c>
       <c r="P311" t="inlineStr">
         <is>
@@ -18814,50 +18814,50 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>RUG849.fasta</t>
+          <t>RUG843.fasta</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>2.220034134887439e-14</v>
+        <v>2.220133171925584e-14</v>
       </c>
       <c r="C312" t="n">
-        <v>8.50418779565604e-08</v>
+        <v>2.220133171925584e-14</v>
       </c>
       <c r="D312" t="n">
-        <v>2.772026403902817e-07</v>
+        <v>2.220133171925584e-14</v>
       </c>
       <c r="E312" t="n">
-        <v>0.9880113927583123</v>
+        <v>0.9981579137341728</v>
       </c>
       <c r="F312" t="n">
-        <v>6.181235416325807e-13</v>
+        <v>1.123062371183544e-11</v>
       </c>
       <c r="G312" t="n">
-        <v>2.051184242541416e-05</v>
+        <v>0.001740816413483182</v>
       </c>
       <c r="H312" t="n">
-        <v>2.893127358417413e-06</v>
+        <v>8.741217249547233e-06</v>
       </c>
       <c r="I312" t="n">
-        <v>0.0119520858551971</v>
+        <v>9.162369856290952e-10</v>
       </c>
       <c r="J312" t="n">
-        <v>2.220034134887439e-14</v>
+        <v>2.220133171925584e-14</v>
       </c>
       <c r="K312" t="n">
-        <v>1.272685566423119e-05</v>
+        <v>9.252770276905377e-05</v>
       </c>
       <c r="L312" t="n">
-        <v>2.220034134887439e-14</v>
+        <v>2.220133171925584e-14</v>
       </c>
       <c r="M312" t="n">
-        <v>3.833980914901546e-12</v>
+        <v>4.724450536588105e-12</v>
       </c>
       <c r="N312" t="n">
-        <v>2.731200518976404e-08</v>
+        <v>2.220133171925584e-14</v>
       </c>
       <c r="O312" t="n">
-        <v>0.9880113927583123</v>
+        <v>0.9981579137341728</v>
       </c>
       <c r="P312" t="inlineStr">
         <is>
@@ -18873,50 +18873,50 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>hRUG857.fasta</t>
+          <t>RUG849.fasta</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>2.220440144953505e-14</v>
+        <v>2.220034134887439e-14</v>
       </c>
       <c r="C313" t="n">
-        <v>2.220440144953505e-14</v>
+        <v>8.50418779565604e-08</v>
       </c>
       <c r="D313" t="n">
-        <v>2.220440144953505e-14</v>
+        <v>2.772026403902817e-07</v>
       </c>
       <c r="E313" t="n">
-        <v>0.9999654100017102</v>
+        <v>0.9880113927583123</v>
       </c>
       <c r="F313" t="n">
-        <v>1.902346892925828e-05</v>
+        <v>6.181235416325807e-13</v>
       </c>
       <c r="G313" t="n">
-        <v>1.173201397838073e-05</v>
+        <v>2.051184242541416e-05</v>
       </c>
       <c r="H313" t="n">
-        <v>1.23713175064981e-06</v>
+        <v>2.893127358417413e-06</v>
       </c>
       <c r="I313" t="n">
-        <v>2.567630109815514e-06</v>
+        <v>0.0119520858551971</v>
       </c>
       <c r="J313" t="n">
-        <v>2.220440144953505e-14</v>
+        <v>2.220034134887439e-14</v>
       </c>
       <c r="K313" t="n">
-        <v>2.975336641632896e-08</v>
+        <v>1.272685566423119e-05</v>
       </c>
       <c r="L313" t="n">
-        <v>2.220440144953505e-14</v>
+        <v>2.220034134887439e-14</v>
       </c>
       <c r="M313" t="n">
-        <v>2.220440144953505e-14</v>
+        <v>3.833980914901546e-12</v>
       </c>
       <c r="N313" t="n">
-        <v>2.220440144953505e-14</v>
+        <v>2.731200518976404e-08</v>
       </c>
       <c r="O313" t="n">
-        <v>0.9999654100017102</v>
+        <v>0.9880113927583123</v>
       </c>
       <c r="P313" t="inlineStr">
         <is>
@@ -18932,50 +18932,50 @@
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>hRUG858.fasta</t>
+          <t>hRUG857.fasta</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>2.220436761336319e-14</v>
+        <v>2.220440144953505e-14</v>
       </c>
       <c r="C314" t="n">
-        <v>2.220436761336319e-14</v>
+        <v>2.220440144953505e-14</v>
       </c>
       <c r="D314" t="n">
-        <v>8.062450640628733e-10</v>
+        <v>2.220440144953505e-14</v>
       </c>
       <c r="E314" t="n">
-        <v>0.9999456135094326</v>
+        <v>0.9999654100017102</v>
       </c>
       <c r="F314" t="n">
-        <v>2.220436761336319e-14</v>
+        <v>1.902346892925828e-05</v>
       </c>
       <c r="G314" t="n">
-        <v>2.99568204237104e-07</v>
+        <v>1.173201397838073e-05</v>
       </c>
       <c r="H314" t="n">
-        <v>1.462740731749819e-07</v>
+        <v>1.23713175064981e-06</v>
       </c>
       <c r="I314" t="n">
-        <v>1.036439843056174e-10</v>
+        <v>2.567630109815514e-06</v>
       </c>
       <c r="J314" t="n">
-        <v>2.220436761336319e-14</v>
+        <v>2.220440144953505e-14</v>
       </c>
       <c r="K314" t="n">
-        <v>5.393973813606745e-05</v>
+        <v>2.975336641632896e-08</v>
       </c>
       <c r="L314" t="n">
-        <v>2.220436761336319e-14</v>
+        <v>2.220440144953505e-14</v>
       </c>
       <c r="M314" t="n">
-        <v>1.317365998074932e-13</v>
+        <v>2.220440144953505e-14</v>
       </c>
       <c r="N314" t="n">
-        <v>2.220436761336319e-14</v>
+        <v>2.220440144953505e-14</v>
       </c>
       <c r="O314" t="n">
-        <v>0.9999456135094326</v>
+        <v>0.9999654100017102</v>
       </c>
       <c r="P314" t="inlineStr">
         <is>
@@ -18991,50 +18991,50 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>hRUG867.fasta</t>
+          <t>hRUG858.fasta</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>2.220432065925251e-14</v>
+        <v>2.220436761336319e-14</v>
       </c>
       <c r="C315" t="n">
-        <v>2.220432065925251e-14</v>
+        <v>2.220436761336319e-14</v>
       </c>
       <c r="D315" t="n">
-        <v>2.220432065925251e-14</v>
+        <v>8.062450640628733e-10</v>
       </c>
       <c r="E315" t="n">
-        <v>0.9999180424166247</v>
+        <v>0.9999456135094326</v>
       </c>
       <c r="F315" t="n">
-        <v>2.220432065925251e-14</v>
+        <v>2.220436761336319e-14</v>
       </c>
       <c r="G315" t="n">
-        <v>3.914048291915828e-05</v>
+        <v>2.99568204237104e-07</v>
       </c>
       <c r="H315" t="n">
-        <v>4.265669924416997e-05</v>
+        <v>1.462740731749819e-07</v>
       </c>
       <c r="I315" t="n">
-        <v>2.220432065925251e-14</v>
+        <v>1.036439843056174e-10</v>
       </c>
       <c r="J315" t="n">
-        <v>2.220432065925251e-14</v>
+        <v>2.220436761336319e-14</v>
       </c>
       <c r="K315" t="n">
-        <v>1.604010122049988e-07</v>
+        <v>5.393973813606745e-05</v>
       </c>
       <c r="L315" t="n">
-        <v>2.220432065925251e-14</v>
+        <v>2.220436761336319e-14</v>
       </c>
       <c r="M315" t="n">
-        <v>2.220432065925251e-14</v>
+        <v>1.317365998074932e-13</v>
       </c>
       <c r="N315" t="n">
-        <v>2.220432065925251e-14</v>
+        <v>2.220436761336319e-14</v>
       </c>
       <c r="O315" t="n">
-        <v>0.9999180424166247</v>
+        <v>0.9999456135094326</v>
       </c>
       <c r="P315" t="inlineStr">
         <is>
@@ -19050,50 +19050,50 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>hRUG873.fasta</t>
+          <t>hRUG867.fasta</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>2.22003687188156e-14</v>
+        <v>2.220432065925251e-14</v>
       </c>
       <c r="C316" t="n">
-        <v>2.22003687188156e-14</v>
+        <v>2.220432065925251e-14</v>
       </c>
       <c r="D316" t="n">
-        <v>2.22003687188156e-14</v>
+        <v>2.220432065925251e-14</v>
       </c>
       <c r="E316" t="n">
-        <v>0.9921419452938645</v>
+        <v>0.9999180424166247</v>
       </c>
       <c r="F316" t="n">
-        <v>2.22003687188156e-14</v>
+        <v>2.220432065925251e-14</v>
       </c>
       <c r="G316" t="n">
-        <v>1.300459656297979e-05</v>
+        <v>3.914048291915828e-05</v>
       </c>
       <c r="H316" t="n">
-        <v>2.125812653479555e-09</v>
+        <v>4.265669924416997e-05</v>
       </c>
       <c r="I316" t="n">
-        <v>2.834626969740392e-07</v>
+        <v>2.220432065925251e-14</v>
       </c>
       <c r="J316" t="n">
-        <v>2.22003687188156e-14</v>
+        <v>2.220432065925251e-14</v>
       </c>
       <c r="K316" t="n">
-        <v>0.007844764520885332</v>
+        <v>1.604010122049988e-07</v>
       </c>
       <c r="L316" t="n">
-        <v>2.22003687188156e-14</v>
+        <v>2.220432065925251e-14</v>
       </c>
       <c r="M316" t="n">
-        <v>2.22003687188156e-14</v>
+        <v>2.220432065925251e-14</v>
       </c>
       <c r="N316" t="n">
-        <v>2.22003687188156e-14</v>
+        <v>2.220432065925251e-14</v>
       </c>
       <c r="O316" t="n">
-        <v>0.9921419452938645</v>
+        <v>0.9999180424166247</v>
       </c>
       <c r="P316" t="inlineStr">
         <is>
@@ -19109,50 +19109,50 @@
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>hRUG878.fasta</t>
+          <t>hRUG873.fasta</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>2.220381434711409e-14</v>
+        <v>2.22003687188156e-14</v>
       </c>
       <c r="C317" t="n">
-        <v>2.105629322817451e-09</v>
+        <v>2.22003687188156e-14</v>
       </c>
       <c r="D317" t="n">
-        <v>4.520592001364236e-05</v>
+        <v>2.22003687188156e-14</v>
       </c>
       <c r="E317" t="n">
-        <v>0.9994959162979481</v>
+        <v>0.9921419452938645</v>
       </c>
       <c r="F317" t="n">
-        <v>2.220381434711409e-14</v>
+        <v>2.22003687188156e-14</v>
       </c>
       <c r="G317" t="n">
-        <v>5.820178836394117e-06</v>
+        <v>1.300459656297979e-05</v>
       </c>
       <c r="H317" t="n">
-        <v>1.982431565248721e-05</v>
+        <v>2.125812653479555e-09</v>
       </c>
       <c r="I317" t="n">
-        <v>1.345686537996159e-07</v>
+        <v>2.834626969740392e-07</v>
       </c>
       <c r="J317" t="n">
-        <v>2.220381434711409e-14</v>
+        <v>2.22003687188156e-14</v>
       </c>
       <c r="K317" t="n">
-        <v>0.0004317505400491221</v>
+        <v>0.007844764520885332</v>
       </c>
       <c r="L317" t="n">
-        <v>2.220381434711409e-14</v>
+        <v>2.22003687188156e-14</v>
       </c>
       <c r="M317" t="n">
-        <v>1.345073614356705e-06</v>
+        <v>2.22003687188156e-14</v>
       </c>
       <c r="N317" t="n">
-        <v>9.995137337150471e-10</v>
+        <v>2.22003687188156e-14</v>
       </c>
       <c r="O317" t="n">
-        <v>0.9994959162979481</v>
+        <v>0.9921419452938645</v>
       </c>
       <c r="P317" t="inlineStr">
         <is>
@@ -19168,50 +19168,50 @@
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>hRUG879.fasta</t>
+          <t>hRUG878.fasta</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>2.220102014163208e-14</v>
+        <v>2.220381434711409e-14</v>
       </c>
       <c r="C318" t="n">
-        <v>2.743562465516828e-12</v>
+        <v>2.105629322817451e-09</v>
       </c>
       <c r="D318" t="n">
-        <v>1.113378093198363e-07</v>
+        <v>4.520592001364236e-05</v>
       </c>
       <c r="E318" t="n">
-        <v>0.9865549328394422</v>
+        <v>0.9994959162979481</v>
       </c>
       <c r="F318" t="n">
-        <v>2.220102014163208e-14</v>
+        <v>2.220381434711409e-14</v>
       </c>
       <c r="G318" t="n">
-        <v>0.01177091864455303</v>
+        <v>5.820178836394117e-06</v>
       </c>
       <c r="H318" t="n">
-        <v>1.761022013860061e-08</v>
+        <v>1.982431565248721e-05</v>
       </c>
       <c r="I318" t="n">
-        <v>0.001244524251876591</v>
+        <v>1.345686537996159e-07</v>
       </c>
       <c r="J318" t="n">
-        <v>2.220102014163208e-14</v>
+        <v>2.220381434711409e-14</v>
       </c>
       <c r="K318" t="n">
-        <v>0.0004294948447382719</v>
+        <v>0.0004317505400491221</v>
       </c>
       <c r="L318" t="n">
-        <v>2.220102014163208e-14</v>
+        <v>2.220381434711409e-14</v>
       </c>
       <c r="M318" t="n">
-        <v>4.620357722263443e-10</v>
+        <v>1.345073614356705e-06</v>
       </c>
       <c r="N318" t="n">
-        <v>6.492256981644528e-12</v>
+        <v>9.995137337150471e-10</v>
       </c>
       <c r="O318" t="n">
-        <v>0.9865549328394422</v>
+        <v>0.9994959162979481</v>
       </c>
       <c r="P318" t="inlineStr">
         <is>
@@ -19227,50 +19227,50 @@
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>hRUG881.fasta</t>
+          <t>hRUG879.fasta</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>2.220143381120711e-14</v>
+        <v>2.220102014163208e-14</v>
       </c>
       <c r="C319" t="n">
-        <v>2.220143381120711e-14</v>
+        <v>2.743562465516828e-12</v>
       </c>
       <c r="D319" t="n">
-        <v>2.220143381120711e-14</v>
+        <v>1.113378093198363e-07</v>
       </c>
       <c r="E319" t="n">
-        <v>0.9981728505794034</v>
+        <v>0.9865549328394422</v>
       </c>
       <c r="F319" t="n">
-        <v>2.220143381120711e-14</v>
+        <v>2.220102014163208e-14</v>
       </c>
       <c r="G319" t="n">
-        <v>0.001471543928380273</v>
+        <v>0.01177091864455303</v>
       </c>
       <c r="H319" t="n">
-        <v>5.533079176597323e-07</v>
+        <v>1.761022013860061e-08</v>
       </c>
       <c r="I319" t="n">
-        <v>0.0003332371801396511</v>
+        <v>0.001244524251876591</v>
       </c>
       <c r="J319" t="n">
-        <v>2.220143381120711e-14</v>
+        <v>2.220102014163208e-14</v>
       </c>
       <c r="K319" t="n">
-        <v>2.181500398139657e-05</v>
+        <v>0.0004294948447382719</v>
       </c>
       <c r="L319" t="n">
-        <v>2.220143381120711e-14</v>
+        <v>2.220102014163208e-14</v>
       </c>
       <c r="M319" t="n">
-        <v>2.220143381120711e-14</v>
+        <v>4.620357722263443e-10</v>
       </c>
       <c r="N319" t="n">
-        <v>2.220143381120711e-14</v>
+        <v>6.492256981644528e-12</v>
       </c>
       <c r="O319" t="n">
-        <v>0.9981728505794034</v>
+        <v>0.9865549328394422</v>
       </c>
       <c r="P319" t="inlineStr">
         <is>
@@ -19286,50 +19286,50 @@
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>hRUG883.fasta</t>
+          <t>hRUG881.fasta</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>2.220212237978491e-14</v>
+        <v>2.220143381120711e-14</v>
       </c>
       <c r="C320" t="n">
-        <v>6.892980449956225e-06</v>
+        <v>2.220143381120711e-14</v>
       </c>
       <c r="D320" t="n">
-        <v>4.220000462168802e-08</v>
+        <v>2.220143381120711e-14</v>
       </c>
       <c r="E320" t="n">
-        <v>0.998625534934287</v>
+        <v>0.9981728505794034</v>
       </c>
       <c r="F320" t="n">
-        <v>2.324942312906848e-13</v>
+        <v>2.220143381120711e-14</v>
       </c>
       <c r="G320" t="n">
-        <v>8.204351115346643e-06</v>
+        <v>0.001471543928380273</v>
       </c>
       <c r="H320" t="n">
-        <v>0.0001617605258941392</v>
+        <v>5.533079176597323e-07</v>
       </c>
       <c r="I320" t="n">
-        <v>0.000113772982655461</v>
+        <v>0.0003332371801396511</v>
       </c>
       <c r="J320" t="n">
-        <v>2.220212237978491e-14</v>
+        <v>2.220143381120711e-14</v>
       </c>
       <c r="K320" t="n">
-        <v>0.001083283938937384</v>
+        <v>2.181500398139657e-05</v>
       </c>
       <c r="L320" t="n">
-        <v>2.220212237978491e-14</v>
+        <v>2.220143381120711e-14</v>
       </c>
       <c r="M320" t="n">
-        <v>4.567521759528308e-09</v>
+        <v>2.220143381120711e-14</v>
       </c>
       <c r="N320" t="n">
-        <v>5.035188351877982e-07</v>
+        <v>2.220143381120711e-14</v>
       </c>
       <c r="O320" t="n">
-        <v>0.998625534934287</v>
+        <v>0.9981728505794034</v>
       </c>
       <c r="P320" t="inlineStr">
         <is>
@@ -19345,50 +19345,50 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>hRUG893.fasta</t>
+          <t>hRUG883.fasta</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>2.220071061708239e-14</v>
+        <v>2.220212237978491e-14</v>
       </c>
       <c r="C321" t="n">
-        <v>8.229155386534645e-06</v>
+        <v>6.892980449956225e-06</v>
       </c>
       <c r="D321" t="n">
-        <v>1.661088320649895e-08</v>
+        <v>4.220000462168802e-08</v>
       </c>
       <c r="E321" t="n">
-        <v>0.9970776601798673</v>
+        <v>0.998625534934287</v>
       </c>
       <c r="F321" t="n">
-        <v>1.016241265583463e-09</v>
+        <v>2.324942312906848e-13</v>
       </c>
       <c r="G321" t="n">
-        <v>0.000163415690918109</v>
+        <v>8.204351115346643e-06</v>
       </c>
       <c r="H321" t="n">
-        <v>5.475706848457051e-06</v>
+        <v>0.0001617605258941392</v>
       </c>
       <c r="I321" t="n">
-        <v>0.000240131346518195</v>
+        <v>0.000113772982655461</v>
       </c>
       <c r="J321" t="n">
-        <v>2.220071061708239e-14</v>
+        <v>2.220212237978491e-14</v>
       </c>
       <c r="K321" t="n">
-        <v>0.001238210895043766</v>
+        <v>0.001083283938937384</v>
       </c>
       <c r="L321" t="n">
-        <v>2.220071061708239e-14</v>
+        <v>2.220212237978491e-14</v>
       </c>
       <c r="M321" t="n">
-        <v>0.001266576047579673</v>
+        <v>4.567521759528308e-09</v>
       </c>
       <c r="N321" t="n">
-        <v>2.833506468329818e-07</v>
+        <v>5.035188351877982e-07</v>
       </c>
       <c r="O321" t="n">
-        <v>0.9970776601798673</v>
+        <v>0.998625534934287</v>
       </c>
       <c r="P321" t="inlineStr">
         <is>
@@ -19404,50 +19404,50 @@
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>hRUG897.fasta</t>
+          <t>hRUG893.fasta</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>2.220435556840294e-14</v>
+        <v>2.220071061708239e-14</v>
       </c>
       <c r="C322" t="n">
-        <v>2.220435556840294e-14</v>
+        <v>8.229155386534645e-06</v>
       </c>
       <c r="D322" t="n">
-        <v>2.220435556840294e-14</v>
+        <v>1.661088320649895e-08</v>
       </c>
       <c r="E322" t="n">
-        <v>0.9999385592146186</v>
+        <v>0.9970776601798673</v>
       </c>
       <c r="F322" t="n">
-        <v>2.220435556840294e-14</v>
+        <v>1.016241265583463e-09</v>
       </c>
       <c r="G322" t="n">
-        <v>4.550677277638503e-05</v>
+        <v>0.000163415690918109</v>
       </c>
       <c r="H322" t="n">
-        <v>7.698157106514874e-10</v>
+        <v>5.475706848457051e-06</v>
       </c>
       <c r="I322" t="n">
-        <v>5.090538015363888e-14</v>
+        <v>0.000240131346518195</v>
       </c>
       <c r="J322" t="n">
-        <v>2.220435556840294e-14</v>
+        <v>2.220071061708239e-14</v>
       </c>
       <c r="K322" t="n">
-        <v>1.593324256069716e-05</v>
+        <v>0.001238210895043766</v>
       </c>
       <c r="L322" t="n">
-        <v>2.220435556840294e-14</v>
+        <v>2.220071061708239e-14</v>
       </c>
       <c r="M322" t="n">
-        <v>2.220435556840294e-14</v>
+        <v>0.001266576047579673</v>
       </c>
       <c r="N322" t="n">
-        <v>2.220435556840294e-14</v>
+        <v>2.833506468329818e-07</v>
       </c>
       <c r="O322" t="n">
-        <v>0.9999385592146186</v>
+        <v>0.9970776601798673</v>
       </c>
       <c r="P322" t="inlineStr">
         <is>
@@ -19463,50 +19463,50 @@
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>hRUG905.fasta</t>
+          <t>hRUG897.fasta</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>2.220436635563651e-14</v>
+        <v>2.220435556840294e-14</v>
       </c>
       <c r="C323" t="n">
-        <v>2.220436635563651e-14</v>
+        <v>2.220435556840294e-14</v>
       </c>
       <c r="D323" t="n">
-        <v>7.774875455241301e-10</v>
+        <v>2.220435556840294e-14</v>
       </c>
       <c r="E323" t="n">
-        <v>0.9999448769185787</v>
+        <v>0.9999385592146186</v>
       </c>
       <c r="F323" t="n">
-        <v>2.220436635563651e-14</v>
+        <v>2.220435556840294e-14</v>
       </c>
       <c r="G323" t="n">
-        <v>7.767008633818532e-08</v>
+        <v>4.550677277638503e-05</v>
       </c>
       <c r="H323" t="n">
-        <v>3.864025730497293e-07</v>
+        <v>7.698157106514874e-10</v>
       </c>
       <c r="I323" t="n">
-        <v>4.103451082327727e-10</v>
+        <v>5.090538015363888e-14</v>
       </c>
       <c r="J323" t="n">
-        <v>2.220436635563651e-14</v>
+        <v>2.220435556840294e-14</v>
       </c>
       <c r="K323" t="n">
-        <v>5.465782003551755e-05</v>
+        <v>1.593324256069716e-05</v>
       </c>
       <c r="L323" t="n">
-        <v>2.220436635563651e-14</v>
+        <v>2.220435556840294e-14</v>
       </c>
       <c r="M323" t="n">
-        <v>7.605596970149069e-13</v>
+        <v>2.220435556840294e-14</v>
       </c>
       <c r="N323" t="n">
-        <v>2.220436635563651e-14</v>
+        <v>2.220435556840294e-14</v>
       </c>
       <c r="O323" t="n">
-        <v>0.9999448769185787</v>
+        <v>0.9999385592146186</v>
       </c>
       <c r="P323" t="inlineStr">
         <is>
@@ -19522,50 +19522,50 @@
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>hRUG906.fasta</t>
+          <t>hRUG905.fasta</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>2.220032405809201e-14</v>
+        <v>2.220436635563651e-14</v>
       </c>
       <c r="C324" t="n">
-        <v>2.220032405809201e-14</v>
+        <v>2.220436635563651e-14</v>
       </c>
       <c r="D324" t="n">
-        <v>2.220032405809201e-14</v>
+        <v>7.774875455241301e-10</v>
       </c>
       <c r="E324" t="n">
-        <v>0.9965658833631269</v>
+        <v>0.9999448769185787</v>
       </c>
       <c r="F324" t="n">
-        <v>2.220032405809201e-14</v>
+        <v>2.220436635563651e-14</v>
       </c>
       <c r="G324" t="n">
-        <v>4.051897525582126e-08</v>
+        <v>7.767008633818532e-08</v>
       </c>
       <c r="H324" t="n">
-        <v>1.367937850060417e-10</v>
+        <v>3.864025730497293e-07</v>
       </c>
       <c r="I324" t="n">
-        <v>2.220032405809201e-14</v>
+        <v>4.103451082327727e-10</v>
       </c>
       <c r="J324" t="n">
-        <v>2.220032405809201e-14</v>
+        <v>2.220436635563651e-14</v>
       </c>
       <c r="K324" t="n">
-        <v>0.003434075980904226</v>
+        <v>5.465782003551755e-05</v>
       </c>
       <c r="L324" t="n">
-        <v>2.220032405809201e-14</v>
+        <v>2.220436635563651e-14</v>
       </c>
       <c r="M324" t="n">
-        <v>2.220032405809201e-14</v>
+        <v>7.605596970149069e-13</v>
       </c>
       <c r="N324" t="n">
-        <v>2.220032405809201e-14</v>
+        <v>2.220436635563651e-14</v>
       </c>
       <c r="O324" t="n">
-        <v>0.9965658833631269</v>
+        <v>0.9999448769185787</v>
       </c>
       <c r="P324" t="inlineStr">
         <is>
@@ -19581,50 +19581,50 @@
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>hRUG907.fasta</t>
+          <t>hRUG906.fasta</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>2.220160805160109e-14</v>
+        <v>2.220032405809201e-14</v>
       </c>
       <c r="C325" t="n">
-        <v>3.557551278807731e-12</v>
+        <v>2.220032405809201e-14</v>
       </c>
       <c r="D325" t="n">
-        <v>3.404595461917347e-05</v>
+        <v>2.220032405809201e-14</v>
       </c>
       <c r="E325" t="n">
-        <v>0.9953995599501978</v>
+        <v>0.9965658833631269</v>
       </c>
       <c r="F325" t="n">
-        <v>4.318946551460575e-09</v>
+        <v>2.220032405809201e-14</v>
       </c>
       <c r="G325" t="n">
-        <v>0.002500182781752187</v>
+        <v>4.051897525582126e-08</v>
       </c>
       <c r="H325" t="n">
-        <v>0.001616135271362979</v>
+        <v>1.367937850060417e-10</v>
       </c>
       <c r="I325" t="n">
-        <v>5.609054614444235e-05</v>
+        <v>2.220032405809201e-14</v>
       </c>
       <c r="J325" t="n">
-        <v>2.220160805160109e-14</v>
+        <v>2.220032405809201e-14</v>
       </c>
       <c r="K325" t="n">
-        <v>1.874648435954414e-05</v>
+        <v>0.003434075980904226</v>
       </c>
       <c r="L325" t="n">
-        <v>2.220160805160109e-14</v>
+        <v>2.220032405809201e-14</v>
       </c>
       <c r="M325" t="n">
-        <v>0.0003752346877697839</v>
+        <v>2.220032405809201e-14</v>
       </c>
       <c r="N325" t="n">
-        <v>1.223580298427678e-12</v>
+        <v>2.220032405809201e-14</v>
       </c>
       <c r="O325" t="n">
-        <v>0.9953995599501978</v>
+        <v>0.9965658833631269</v>
       </c>
       <c r="P325" t="inlineStr">
         <is>
@@ -19640,50 +19640,50 @@
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>hRUG908.fasta</t>
+          <t>hRUG907.fasta</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>2.220033154161155e-14</v>
+        <v>2.220160805160109e-14</v>
       </c>
       <c r="C326" t="n">
-        <v>2.220033154161155e-14</v>
+        <v>3.557551278807731e-12</v>
       </c>
       <c r="D326" t="n">
-        <v>2.220033154161155e-14</v>
+        <v>3.404595461917347e-05</v>
       </c>
       <c r="E326" t="n">
-        <v>0.9960068075272231</v>
+        <v>0.9953995599501978</v>
       </c>
       <c r="F326" t="n">
-        <v>2.220033154161155e-14</v>
+        <v>4.318946551460575e-09</v>
       </c>
       <c r="G326" t="n">
-        <v>2.441185770616313e-06</v>
+        <v>0.002500182781752187</v>
       </c>
       <c r="H326" t="n">
-        <v>5.43459933910691e-08</v>
+        <v>0.001616135271362979</v>
       </c>
       <c r="I326" t="n">
-        <v>7.916436482510899e-12</v>
+        <v>5.609054614444235e-05</v>
       </c>
       <c r="J326" t="n">
-        <v>2.220033154161155e-14</v>
+        <v>2.220160805160109e-14</v>
       </c>
       <c r="K326" t="n">
-        <v>0.003990696932380004</v>
+        <v>1.874648435954414e-05</v>
       </c>
       <c r="L326" t="n">
-        <v>2.220033154161155e-14</v>
+        <v>2.220160805160109e-14</v>
       </c>
       <c r="M326" t="n">
-        <v>5.61076836535638e-13</v>
+        <v>0.0003752346877697839</v>
       </c>
       <c r="N326" t="n">
-        <v>2.220033154161155e-14</v>
+        <v>1.223580298427678e-12</v>
       </c>
       <c r="O326" t="n">
-        <v>0.9960068075272231</v>
+        <v>0.9953995599501978</v>
       </c>
       <c r="P326" t="inlineStr">
         <is>
@@ -19699,50 +19699,50 @@
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>hRUG909.fasta</t>
+          <t>hRUG908.fasta</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>2.220172434316756e-14</v>
+        <v>2.220033154161155e-14</v>
       </c>
       <c r="C327" t="n">
-        <v>2.220172434316756e-14</v>
+        <v>2.220033154161155e-14</v>
       </c>
       <c r="D327" t="n">
-        <v>1.96465566422808e-10</v>
+        <v>2.220033154161155e-14</v>
       </c>
       <c r="E327" t="n">
-        <v>0.9983880577263493</v>
+        <v>0.9960068075272231</v>
       </c>
       <c r="F327" t="n">
-        <v>2.220172434316756e-14</v>
+        <v>2.220033154161155e-14</v>
       </c>
       <c r="G327" t="n">
-        <v>0.001561798778514434</v>
+        <v>2.441185770616313e-06</v>
       </c>
       <c r="H327" t="n">
-        <v>6.247792792565022e-07</v>
+        <v>5.43459933910691e-08</v>
       </c>
       <c r="I327" t="n">
-        <v>6.089200892148232e-07</v>
+        <v>7.916436482510899e-12</v>
       </c>
       <c r="J327" t="n">
-        <v>2.220172434316756e-14</v>
+        <v>2.220033154161155e-14</v>
       </c>
       <c r="K327" t="n">
-        <v>4.890755920583095e-05</v>
+        <v>0.003990696932380004</v>
       </c>
       <c r="L327" t="n">
-        <v>2.220172434316756e-14</v>
+        <v>2.220033154161155e-14</v>
       </c>
       <c r="M327" t="n">
-        <v>2.039963080965332e-09</v>
+        <v>5.61076836535638e-13</v>
       </c>
       <c r="N327" t="n">
-        <v>2.220172434316756e-14</v>
+        <v>2.220033154161155e-14</v>
       </c>
       <c r="O327" t="n">
-        <v>0.9983880577263493</v>
+        <v>0.9960068075272231</v>
       </c>
       <c r="P327" t="inlineStr">
         <is>
@@ -19758,50 +19758,50 @@
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>hRUG913.fasta</t>
+          <t>hRUG909.fasta</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>2.220034091558516e-14</v>
+        <v>2.220172434316756e-14</v>
       </c>
       <c r="C328" t="n">
-        <v>1.50650717217498e-07</v>
+        <v>2.220172434316756e-14</v>
       </c>
       <c r="D328" t="n">
-        <v>6.036348235906078e-09</v>
+        <v>1.96465566422808e-10</v>
       </c>
       <c r="E328" t="n">
-        <v>0.994881954581249</v>
+        <v>0.9983880577263493</v>
       </c>
       <c r="F328" t="n">
-        <v>2.220034091558516e-14</v>
+        <v>2.220172434316756e-14</v>
       </c>
       <c r="G328" t="n">
-        <v>5.452156957701098e-07</v>
+        <v>0.001561798778514434</v>
       </c>
       <c r="H328" t="n">
-        <v>3.523286658299941e-06</v>
+        <v>6.247792792565022e-07</v>
       </c>
       <c r="I328" t="n">
-        <v>7.830026692459964e-08</v>
+        <v>6.089200892148232e-07</v>
       </c>
       <c r="J328" t="n">
-        <v>2.220034091558516e-14</v>
+        <v>2.220172434316756e-14</v>
       </c>
       <c r="K328" t="n">
-        <v>0.00511344652010897</v>
+        <v>4.890755920583095e-05</v>
       </c>
       <c r="L328" t="n">
-        <v>2.220034091558516e-14</v>
+        <v>2.220172434316756e-14</v>
       </c>
       <c r="M328" t="n">
-        <v>2.954088446296041e-07</v>
+        <v>2.039963080965332e-09</v>
       </c>
       <c r="N328" t="n">
-        <v>2.220034091558516e-14</v>
+        <v>2.220172434316756e-14</v>
       </c>
       <c r="O328" t="n">
-        <v>0.994881954581249</v>
+        <v>0.9983880577263493</v>
       </c>
       <c r="P328" t="inlineStr">
         <is>
@@ -19817,50 +19817,50 @@
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>hRUG879.fasta</t>
+          <t>hRUG913.fasta</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>2.220110329884796e-14</v>
+        <v>2.220034091558516e-14</v>
       </c>
       <c r="C329" t="n">
-        <v>2.53666327492368e-12</v>
+        <v>1.50650717217498e-07</v>
       </c>
       <c r="D329" t="n">
-        <v>6.725377293628598e-08</v>
+        <v>6.036348235906078e-09</v>
       </c>
       <c r="E329" t="n">
-        <v>0.9920281411610722</v>
+        <v>0.994881954581249</v>
       </c>
       <c r="F329" t="n">
-        <v>2.220110329884796e-14</v>
+        <v>2.220034091558516e-14</v>
       </c>
       <c r="G329" t="n">
-        <v>0.007017587716217569</v>
+        <v>5.452156957701098e-07</v>
       </c>
       <c r="H329" t="n">
-        <v>2.497137131480128e-08</v>
+        <v>3.523286658299941e-06</v>
       </c>
       <c r="I329" t="n">
-        <v>0.0005910686108829421</v>
+        <v>7.830026692459964e-08</v>
       </c>
       <c r="J329" t="n">
-        <v>2.220110329884796e-14</v>
+        <v>2.220034091558516e-14</v>
       </c>
       <c r="K329" t="n">
-        <v>0.0003631098624163801</v>
+        <v>0.00511344652010897</v>
       </c>
       <c r="L329" t="n">
-        <v>2.220110329884796e-14</v>
+        <v>2.220034091558516e-14</v>
       </c>
       <c r="M329" t="n">
-        <v>4.189953331671689e-10</v>
+        <v>2.954088446296041e-07</v>
       </c>
       <c r="N329" t="n">
-        <v>2.645716691530223e-12</v>
+        <v>2.220034091558516e-14</v>
       </c>
       <c r="O329" t="n">
-        <v>0.9920281411610722</v>
+        <v>0.994881954581249</v>
       </c>
       <c r="P329" t="inlineStr">
         <is>
@@ -19868,596 +19868,6 @@
         </is>
       </c>
       <c r="Q329" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="inlineStr">
-        <is>
-          <t>hRUG881.fasta</t>
-        </is>
-      </c>
-      <c r="B330" t="n">
-        <v>2.220264283290263e-14</v>
-      </c>
-      <c r="C330" t="n">
-        <v>2.220264283290263e-14</v>
-      </c>
-      <c r="D330" t="n">
-        <v>2.220264283290263e-14</v>
-      </c>
-      <c r="E330" t="n">
-        <v>0.998923131281522</v>
-      </c>
-      <c r="F330" t="n">
-        <v>2.220264283290263e-14</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.0009084563584744775</v>
-      </c>
-      <c r="H330" t="n">
-        <v>6.609634231495755e-08</v>
-      </c>
-      <c r="I330" t="n">
-        <v>0.0001637806238094196</v>
-      </c>
-      <c r="J330" t="n">
-        <v>2.220264283290263e-14</v>
-      </c>
-      <c r="K330" t="n">
-        <v>4.565639674043469e-06</v>
-      </c>
-      <c r="L330" t="n">
-        <v>2.220264283290263e-14</v>
-      </c>
-      <c r="M330" t="n">
-        <v>2.220264283290263e-14</v>
-      </c>
-      <c r="N330" t="n">
-        <v>2.220264283290263e-14</v>
-      </c>
-      <c r="O330" t="n">
-        <v>0.998923131281522</v>
-      </c>
-      <c r="P330" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-      <c r="Q330" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="inlineStr">
-        <is>
-          <t>hRUG883.fasta</t>
-        </is>
-      </c>
-      <c r="B331" t="n">
-        <v>2.220322678628553e-14</v>
-      </c>
-      <c r="C331" t="n">
-        <v>1.581977655223528e-06</v>
-      </c>
-      <c r="D331" t="n">
-        <v>7.170507352550626e-08</v>
-      </c>
-      <c r="E331" t="n">
-        <v>0.9992761304981178</v>
-      </c>
-      <c r="F331" t="n">
-        <v>5.910080403211163e-13</v>
-      </c>
-      <c r="G331" t="n">
-        <v>5.890125025055759e-06</v>
-      </c>
-      <c r="H331" t="n">
-        <v>8.158744816787915e-05</v>
-      </c>
-      <c r="I331" t="n">
-        <v>0.0001257528134661944</v>
-      </c>
-      <c r="J331" t="n">
-        <v>2.220322678628553e-14</v>
-      </c>
-      <c r="K331" t="n">
-        <v>0.0005083155222112301</v>
-      </c>
-      <c r="L331" t="n">
-        <v>2.220322678628553e-14</v>
-      </c>
-      <c r="M331" t="n">
-        <v>3.313236933289611e-09</v>
-      </c>
-      <c r="N331" t="n">
-        <v>6.665963883246995e-07</v>
-      </c>
-      <c r="O331" t="n">
-        <v>0.9992761304981178</v>
-      </c>
-      <c r="P331" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-      <c r="Q331" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="inlineStr">
-        <is>
-          <t>hRUG893.fasta</t>
-        </is>
-      </c>
-      <c r="B332" t="n">
-        <v>2.220045986146259e-14</v>
-      </c>
-      <c r="C332" t="n">
-        <v>2.271011576235122e-06</v>
-      </c>
-      <c r="D332" t="n">
-        <v>5.038352224491679e-08</v>
-      </c>
-      <c r="E332" t="n">
-        <v>0.9974140791530491</v>
-      </c>
-      <c r="F332" t="n">
-        <v>1.125269442852464e-09</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.0003709257566939389</v>
-      </c>
-      <c r="H332" t="n">
-        <v>6.266659651724893e-06</v>
-      </c>
-      <c r="I332" t="n">
-        <v>0.0006381834793171659</v>
-      </c>
-      <c r="J332" t="n">
-        <v>2.220045986146259e-14</v>
-      </c>
-      <c r="K332" t="n">
-        <v>0.001000765504524921</v>
-      </c>
-      <c r="L332" t="n">
-        <v>2.220045986146259e-14</v>
-      </c>
-      <c r="M332" t="n">
-        <v>0.0005672885711263686</v>
-      </c>
-      <c r="N332" t="n">
-        <v>1.683552022468837e-07</v>
-      </c>
-      <c r="O332" t="n">
-        <v>0.9974140791530491</v>
-      </c>
-      <c r="P332" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-      <c r="Q332" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="inlineStr">
-        <is>
-          <t>hRUG897.fasta</t>
-        </is>
-      </c>
-      <c r="B333" t="n">
-        <v>2.22043602992789e-14</v>
-      </c>
-      <c r="C333" t="n">
-        <v>2.22043602992789e-14</v>
-      </c>
-      <c r="D333" t="n">
-        <v>2.22043602992789e-14</v>
-      </c>
-      <c r="E333" t="n">
-        <v>0.9999413299685086</v>
-      </c>
-      <c r="F333" t="n">
-        <v>2.22043602992789e-14</v>
-      </c>
-      <c r="G333" t="n">
-        <v>5.529212026012871e-05</v>
-      </c>
-      <c r="H333" t="n">
-        <v>5.207340537120226e-10</v>
-      </c>
-      <c r="I333" t="n">
-        <v>2.22043602992789e-14</v>
-      </c>
-      <c r="J333" t="n">
-        <v>2.22043602992789e-14</v>
-      </c>
-      <c r="K333" t="n">
-        <v>3.377390297485117e-06</v>
-      </c>
-      <c r="L333" t="n">
-        <v>2.22043602992789e-14</v>
-      </c>
-      <c r="M333" t="n">
-        <v>2.22043602992789e-14</v>
-      </c>
-      <c r="N333" t="n">
-        <v>2.22043602992789e-14</v>
-      </c>
-      <c r="O333" t="n">
-        <v>0.9999413299685086</v>
-      </c>
-      <c r="P333" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-      <c r="Q333" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="inlineStr">
-        <is>
-          <t>hRUG905.fasta</t>
-        </is>
-      </c>
-      <c r="B334" t="n">
-        <v>2.220441945667714e-14</v>
-      </c>
-      <c r="C334" t="n">
-        <v>2.220441945667714e-14</v>
-      </c>
-      <c r="D334" t="n">
-        <v>7.57681696070564e-12</v>
-      </c>
-      <c r="E334" t="n">
-        <v>0.9999759731297296</v>
-      </c>
-      <c r="F334" t="n">
-        <v>2.220441945667714e-14</v>
-      </c>
-      <c r="G334" t="n">
-        <v>7.044513775952611e-08</v>
-      </c>
-      <c r="H334" t="n">
-        <v>2.720883035240289e-07</v>
-      </c>
-      <c r="I334" t="n">
-        <v>1.442439798263862e-10</v>
-      </c>
-      <c r="J334" t="n">
-        <v>2.220441945667714e-14</v>
-      </c>
-      <c r="K334" t="n">
-        <v>2.368418485276067e-05</v>
-      </c>
-      <c r="L334" t="n">
-        <v>2.220441945667714e-14</v>
-      </c>
-      <c r="M334" t="n">
-        <v>2.220441945667714e-14</v>
-      </c>
-      <c r="N334" t="n">
-        <v>2.220441945667714e-14</v>
-      </c>
-      <c r="O334" t="n">
-        <v>0.9999759731297296</v>
-      </c>
-      <c r="P334" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-      <c r="Q334" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="inlineStr">
-        <is>
-          <t>hRUG906.fasta</t>
-        </is>
-      </c>
-      <c r="B335" t="n">
-        <v>2.220312908379806e-14</v>
-      </c>
-      <c r="C335" t="n">
-        <v>2.220312908379806e-14</v>
-      </c>
-      <c r="D335" t="n">
-        <v>2.220312908379806e-14</v>
-      </c>
-      <c r="E335" t="n">
-        <v>0.9992187101668313</v>
-      </c>
-      <c r="F335" t="n">
-        <v>2.220312908379806e-14</v>
-      </c>
-      <c r="G335" t="n">
-        <v>7.273942367224521e-08</v>
-      </c>
-      <c r="H335" t="n">
-        <v>3.245929418520561e-10</v>
-      </c>
-      <c r="I335" t="n">
-        <v>2.220312908379806e-14</v>
-      </c>
-      <c r="J335" t="n">
-        <v>2.220312908379806e-14</v>
-      </c>
-      <c r="K335" t="n">
-        <v>0.0007812167689522467</v>
-      </c>
-      <c r="L335" t="n">
-        <v>2.220312908379806e-14</v>
-      </c>
-      <c r="M335" t="n">
-        <v>2.220312908379806e-14</v>
-      </c>
-      <c r="N335" t="n">
-        <v>2.220312908379806e-14</v>
-      </c>
-      <c r="O335" t="n">
-        <v>0.9992187101668313</v>
-      </c>
-      <c r="P335" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-      <c r="Q335" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="inlineStr">
-        <is>
-          <t>hRUG907.fasta</t>
-        </is>
-      </c>
-      <c r="B336" t="n">
-        <v>2.220043833777409e-14</v>
-      </c>
-      <c r="C336" t="n">
-        <v>4.706675849752889e-14</v>
-      </c>
-      <c r="D336" t="n">
-        <v>1.101790280748598e-06</v>
-      </c>
-      <c r="E336" t="n">
-        <v>0.9973618150972693</v>
-      </c>
-      <c r="F336" t="n">
-        <v>1.942628617678635e-09</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.001029665377885977</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0.001552016834249657</v>
-      </c>
-      <c r="I336" t="n">
-        <v>4.917492359288024e-05</v>
-      </c>
-      <c r="J336" t="n">
-        <v>2.220043833777409e-14</v>
-      </c>
-      <c r="K336" t="n">
-        <v>3.238921873505312e-06</v>
-      </c>
-      <c r="L336" t="n">
-        <v>2.220043833777409e-14</v>
-      </c>
-      <c r="M336" t="n">
-        <v>2.985112083317394e-06</v>
-      </c>
-      <c r="N336" t="n">
-        <v>2.220043833777409e-14</v>
-      </c>
-      <c r="O336" t="n">
-        <v>0.9973618150972693</v>
-      </c>
-      <c r="P336" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-      <c r="Q336" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="inlineStr">
-        <is>
-          <t>hRUG908.fasta</t>
-        </is>
-      </c>
-      <c r="B337" t="n">
-        <v>2.220200272895157e-14</v>
-      </c>
-      <c r="C337" t="n">
-        <v>2.220200272895157e-14</v>
-      </c>
-      <c r="D337" t="n">
-        <v>2.220200272895157e-14</v>
-      </c>
-      <c r="E337" t="n">
-        <v>0.9985549251814869</v>
-      </c>
-      <c r="F337" t="n">
-        <v>2.220200272895157e-14</v>
-      </c>
-      <c r="G337" t="n">
-        <v>5.013338405441177e-06</v>
-      </c>
-      <c r="H337" t="n">
-        <v>1.226114836328885e-07</v>
-      </c>
-      <c r="I337" t="n">
-        <v>1.345920010417155e-11</v>
-      </c>
-      <c r="J337" t="n">
-        <v>2.220200272895157e-14</v>
-      </c>
-      <c r="K337" t="n">
-        <v>0.001439938854945535</v>
-      </c>
-      <c r="L337" t="n">
-        <v>2.220200272895157e-14</v>
-      </c>
-      <c r="M337" t="n">
-        <v>6.388776446419414e-14</v>
-      </c>
-      <c r="N337" t="n">
-        <v>2.220200272895157e-14</v>
-      </c>
-      <c r="O337" t="n">
-        <v>0.9985549251814869</v>
-      </c>
-      <c r="P337" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-      <c r="Q337" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="inlineStr">
-        <is>
-          <t>hRUG909.fasta</t>
-        </is>
-      </c>
-      <c r="B338" t="n">
-        <v>2.22017981083498e-14</v>
-      </c>
-      <c r="C338" t="n">
-        <v>2.22017981083498e-14</v>
-      </c>
-      <c r="D338" t="n">
-        <v>5.106603024131497e-13</v>
-      </c>
-      <c r="E338" t="n">
-        <v>0.998431354401725</v>
-      </c>
-      <c r="F338" t="n">
-        <v>2.22017981083498e-14</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.001562461387036942</v>
-      </c>
-      <c r="H338" t="n">
-        <v>6.037037799438098e-07</v>
-      </c>
-      <c r="I338" t="n">
-        <v>2.16315001985191e-06</v>
-      </c>
-      <c r="J338" t="n">
-        <v>2.22017981083498e-14</v>
-      </c>
-      <c r="K338" t="n">
-        <v>3.416752892350344e-06</v>
-      </c>
-      <c r="L338" t="n">
-        <v>2.22017981083498e-14</v>
-      </c>
-      <c r="M338" t="n">
-        <v>6.039018970091813e-10</v>
-      </c>
-      <c r="N338" t="n">
-        <v>2.22017981083498e-14</v>
-      </c>
-      <c r="O338" t="n">
-        <v>0.998431354401725</v>
-      </c>
-      <c r="P338" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-      <c r="Q338" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="inlineStr">
-        <is>
-          <t>hRUG913.fasta</t>
-        </is>
-      </c>
-      <c r="B339" t="n">
-        <v>2.220033462918953e-14</v>
-      </c>
-      <c r="C339" t="n">
-        <v>2.101287982496632e-07</v>
-      </c>
-      <c r="D339" t="n">
-        <v>2.333833967575808e-09</v>
-      </c>
-      <c r="E339" t="n">
-        <v>0.9958153430233602</v>
-      </c>
-      <c r="F339" t="n">
-        <v>2.220033462918953e-14</v>
-      </c>
-      <c r="G339" t="n">
-        <v>6.660263244014391e-07</v>
-      </c>
-      <c r="H339" t="n">
-        <v>3.199926289187487e-06</v>
-      </c>
-      <c r="I339" t="n">
-        <v>9.018677442934557e-08</v>
-      </c>
-      <c r="J339" t="n">
-        <v>2.220033462918953e-14</v>
-      </c>
-      <c r="K339" t="n">
-        <v>0.004180186124371746</v>
-      </c>
-      <c r="L339" t="n">
-        <v>2.220033462918953e-14</v>
-      </c>
-      <c r="M339" t="n">
-        <v>3.022501368203339e-07</v>
-      </c>
-      <c r="N339" t="n">
-        <v>2.220033462918953e-14</v>
-      </c>
-      <c r="O339" t="n">
-        <v>0.9958153430233602</v>
-      </c>
-      <c r="P339" t="inlineStr">
-        <is>
-          <t>o__Bacteroidales</t>
-        </is>
-      </c>
-      <c r="Q339" t="inlineStr">
         <is>
           <t>o__Bacteroidales</t>
         </is>
